--- a/core/utils/cadenderecoSANTOS.xlsx
+++ b/core/utils/cadenderecoSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3572B-3712-49AE-8B66-8B260227B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB3690-0BFB-4D5F-9AF0-DF6066E2B4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="168">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -499,6 +499,36 @@
   </si>
   <si>
     <t>UME - FLORESTAN FERNANDES PROF</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>UME - ALCIDES LOBO VIANA DR</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>UME - CELY DE MOURA NEGRINI PROF</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>UME - ESMERALDO TARQUINIO PREFEITO</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>UME - EUNICE CALDAS</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>UME - FLORESTAN FERNANDES I PROF</t>
   </si>
 </sst>
 </file>
@@ -1227,9 +1257,9 @@
   <dimension ref="A1:AE814"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5755,9 +5785,15 @@
       <c r="A100" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="28"/>
+      <c r="B100" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" s="21">
+        <v>40</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="E100" s="26"/>
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
@@ -5796,9 +5832,15 @@
       <c r="A101" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="28"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="28"/>
+      <c r="B101" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="21">
+        <v>49</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="E101" s="26"/>
       <c r="F101" s="35"/>
       <c r="G101" s="24"/>
@@ -5837,9 +5879,15 @@
       <c r="A102" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="28"/>
+      <c r="B102" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="21">
+        <v>62</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>163</v>
+      </c>
       <c r="E102" s="26"/>
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
@@ -5878,9 +5926,15 @@
       <c r="A103" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="28"/>
+      <c r="B103" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103" s="21">
+        <v>63</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>165</v>
+      </c>
       <c r="E103" s="26"/>
       <c r="F103" s="35"/>
       <c r="G103" s="24"/>
@@ -5919,9 +5973,15 @@
       <c r="A104" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="28"/>
+      <c r="B104" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" s="21">
+        <v>66</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>167</v>
+      </c>
       <c r="E104" s="26"/>
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>

--- a/core/utils/cadenderecoSANTOS.xlsx
+++ b/core/utils/cadenderecoSANTOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB3690-0BFB-4D5F-9AF0-DF6066E2B4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AF400D-FDD0-4653-BBCE-05C1E7AF680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="208">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -529,6 +529,126 @@
   </si>
   <si>
     <t>UME - FLORESTAN FERNANDES I PROF</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>UME - JOSE BONIFACIO</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>UME - FLAVIO CIPRIANO BARBOSA</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>UME - JOSE DA COSTA SILVA SOBRINHO DR</t>
+  </si>
+  <si>
+    <t>Av. Sen. Pinheiro Machado</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>MARAPÉ</t>
+  </si>
+  <si>
+    <t>11075-000</t>
+  </si>
+  <si>
+    <t>3239-4170</t>
+  </si>
+  <si>
+    <t>Pça. Profº José Oliveira Lopes</t>
+  </si>
+  <si>
+    <t>RÁDIO CLUBE</t>
+  </si>
+  <si>
+    <t>11088-190</t>
+  </si>
+  <si>
+    <t>3203-1632</t>
+  </si>
+  <si>
+    <t>Rua Dr. Alderico Monteiro Soares</t>
+  </si>
+  <si>
+    <t>s/nº</t>
+  </si>
+  <si>
+    <t>3299-3836</t>
+  </si>
+  <si>
+    <t>11090-190</t>
+  </si>
+  <si>
+    <t>BOM RETIRO</t>
+  </si>
+  <si>
+    <t>Rua São Paulo</t>
+  </si>
+  <si>
+    <t>3234-9009</t>
+  </si>
+  <si>
+    <t>VILA MATHIAS</t>
+  </si>
+  <si>
+    <t>11075-330</t>
+  </si>
+  <si>
+    <t>Rua Oswaldo Cochrane</t>
+  </si>
+  <si>
+    <t>11040-111</t>
+  </si>
+  <si>
+    <t>EMBARÉ</t>
+  </si>
+  <si>
+    <t>3227-2120</t>
+  </si>
+  <si>
+    <t>Av. Conselheiro Nébias</t>
+  </si>
+  <si>
+    <t>11015-003</t>
+  </si>
+  <si>
+    <t>VILA NOVA</t>
+  </si>
+  <si>
+    <t>3232-3425</t>
+  </si>
+  <si>
+    <t>Rua Cel. Feliciano Narciso Bicudo</t>
+  </si>
+  <si>
+    <t>3299-8489</t>
+  </si>
+  <si>
+    <t>11095-030</t>
+  </si>
+  <si>
+    <t>SÃO MANOEL</t>
+  </si>
+  <si>
+    <t>Rua Lúcia Hehl Caiaffa</t>
+  </si>
+  <si>
+    <t>3296-6765</t>
+  </si>
+  <si>
+    <t>11095-420</t>
+  </si>
+  <si>
+    <t>PIRATININGA</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1379,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <selection pane="bottomLeft" activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5794,12 +5914,24 @@
       <c r="D100" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="24"/>
+      <c r="E100" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G100" s="24">
+        <v>606</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I100" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J100" s="24" t="s">
+        <v>177</v>
+      </c>
       <c r="K100" s="32" t="s">
         <v>15</v>
       </c>
@@ -5841,12 +5973,24 @@
       <c r="D101" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="24"/>
+      <c r="E101" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F101" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G101" s="24">
+        <v>62</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I101" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="J101" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="K101" s="32" t="s">
         <v>15</v>
       </c>
@@ -5888,12 +6032,24 @@
       <c r="D102" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="24"/>
+      <c r="E102" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I102" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J102" s="24" t="s">
+        <v>186</v>
+      </c>
       <c r="K102" s="32" t="s">
         <v>15</v>
       </c>
@@ -5935,12 +6091,24 @@
       <c r="D103" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E103" s="26"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="24"/>
+      <c r="E103" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F103" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G103" s="24">
+        <v>40</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I103" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>191</v>
+      </c>
       <c r="K103" s="32" t="s">
         <v>15</v>
       </c>
@@ -5982,12 +6150,24 @@
       <c r="D104" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E104" s="26"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="24"/>
+      <c r="E104" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G104" s="24">
+        <v>91</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I104" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>193</v>
+      </c>
       <c r="K104" s="32" t="s">
         <v>15</v>
       </c>
@@ -6020,15 +6200,33 @@
       <c r="A105" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="24"/>
+      <c r="B105" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" s="21">
+        <v>78</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F105" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G105" s="24">
+        <v>159</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I105" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="J105" s="24" t="s">
+        <v>197</v>
+      </c>
       <c r="K105" s="32" t="s">
         <v>15</v>
       </c>
@@ -6061,15 +6259,33 @@
       <c r="A106" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="28"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
+      <c r="B106" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" s="21">
+        <v>65</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F106" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G106" s="24">
+        <v>598</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I106" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J106" s="24" t="s">
+        <v>202</v>
+      </c>
       <c r="K106" s="32" t="s">
         <v>15</v>
       </c>
@@ -6102,15 +6318,33 @@
       <c r="A107" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="28"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="24"/>
+      <c r="B107" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="21">
+        <v>81</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F107" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="G107" s="24">
+        <v>375</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I107" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J107" s="24" t="s">
+        <v>206</v>
+      </c>
       <c r="K107" s="32" t="s">
         <v>15</v>
       </c>

--- a/core/utils/cadenderecoSANTOS.xlsx
+++ b/core/utils/cadenderecoSANTOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AF400D-FDD0-4653-BBCE-05C1E7AF680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB9AD3A-532F-4DA8-B080-168F3737A822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="192">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -549,106 +549,58 @@
     <t>UME - JOSE DA COSTA SILVA SOBRINHO DR</t>
   </si>
   <si>
-    <t>Av. Sen. Pinheiro Machado</t>
+    <t>1178</t>
   </si>
   <si>
-    <t>*</t>
+    <t>UME - JOSE GENESIO IRMAO</t>
   </si>
   <si>
-    <t>MARAPÉ</t>
+    <t>1179</t>
   </si>
   <si>
-    <t>11075-000</t>
+    <t>UME - LUCIO FLORO PADRE</t>
   </si>
   <si>
-    <t>3239-4170</t>
+    <t>1180</t>
   </si>
   <si>
-    <t>Pça. Profº José Oliveira Lopes</t>
+    <t>UME - LUIZ CARLOS PRESTES</t>
   </si>
   <si>
-    <t>RÁDIO CLUBE</t>
+    <t>1181</t>
   </si>
   <si>
-    <t>11088-190</t>
+    <t>UME - MARIA PATRICIA</t>
   </si>
   <si>
-    <t>3203-1632</t>
+    <t>1182</t>
   </si>
   <si>
-    <t>Rua Dr. Alderico Monteiro Soares</t>
+    <t>UME - NELSON DE TOLEDO PIZA DR</t>
   </si>
   <si>
-    <t>s/nº</t>
+    <t>1183</t>
   </si>
   <si>
-    <t>3299-3836</t>
+    <t>UME - NOEL GOMES FERREIRA</t>
   </si>
   <si>
-    <t>11090-190</t>
+    <t>1184</t>
   </si>
   <si>
-    <t>BOM RETIRO</t>
+    <t>UME - OLIVIA FERNANDES</t>
   </si>
   <si>
-    <t>Rua São Paulo</t>
+    <t>1185</t>
   </si>
   <si>
-    <t>3234-9009</t>
+    <t>UME - PORCHAT DE ASSIS DR</t>
   </si>
   <si>
-    <t>VILA MATHIAS</t>
+    <t>1186</t>
   </si>
   <si>
-    <t>11075-330</t>
-  </si>
-  <si>
-    <t>Rua Oswaldo Cochrane</t>
-  </si>
-  <si>
-    <t>11040-111</t>
-  </si>
-  <si>
-    <t>EMBARÉ</t>
-  </si>
-  <si>
-    <t>3227-2120</t>
-  </si>
-  <si>
-    <t>Av. Conselheiro Nébias</t>
-  </si>
-  <si>
-    <t>11015-003</t>
-  </si>
-  <si>
-    <t>VILA NOVA</t>
-  </si>
-  <si>
-    <t>3232-3425</t>
-  </si>
-  <si>
-    <t>Rua Cel. Feliciano Narciso Bicudo</t>
-  </si>
-  <si>
-    <t>3299-8489</t>
-  </si>
-  <si>
-    <t>11095-030</t>
-  </si>
-  <si>
-    <t>SÃO MANOEL</t>
-  </si>
-  <si>
-    <t>Rua Lúcia Hehl Caiaffa</t>
-  </si>
-  <si>
-    <t>3296-6765</t>
-  </si>
-  <si>
-    <t>11095-420</t>
-  </si>
-  <si>
-    <t>PIRATININGA</t>
+    <t>UME - SAMUEL AUGUSTO LEAO MOURA DR</t>
   </si>
 </sst>
 </file>
@@ -785,7 +737,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,6 +789,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,7 +903,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,6 +1003,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="10" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1374,28 +1338,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
-  <dimension ref="A1:AE814"/>
+  <dimension ref="A1:AE821"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J110" sqref="J110"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3"/>
-    <col min="2" max="2" width="9.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="61.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="26.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="16.33203125" style="3"/>
+    <col min="1" max="1" width="16.28515625" style="3"/>
+    <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="68" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="26.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="16.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -1461,13 +1425,13 @@
       <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="37">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="31"/>
@@ -1508,13 +1472,13 @@
       <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="21">
-        <v>2</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="37">
+        <v>2</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="31"/>
@@ -1555,13 +1519,13 @@
       <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="37">
         <v>3</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="26"/>
@@ -1602,13 +1566,13 @@
       <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="37">
         <v>4</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="26"/>
@@ -1649,13 +1613,13 @@
       <c r="A6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="37">
         <v>5</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="31"/>
@@ -1696,13 +1660,13 @@
       <c r="A7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="37">
         <v>6</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="31"/>
@@ -1743,13 +1707,13 @@
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="37">
         <v>7</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="36" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="31"/>
@@ -1790,13 +1754,13 @@
       <c r="A9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="37">
         <v>8</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="31"/>
@@ -1837,13 +1801,13 @@
       <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="37">
         <v>9</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="31"/>
@@ -1884,13 +1848,13 @@
       <c r="A11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="37">
         <v>10</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="36" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="31"/>
@@ -1931,13 +1895,13 @@
       <c r="A12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="37">
         <v>11</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="36" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="31"/>
@@ -1978,13 +1942,13 @@
       <c r="A13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="37">
         <v>12</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="31"/>
@@ -2025,13 +1989,13 @@
       <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="37">
         <v>13</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="31"/>
@@ -2072,13 +2036,13 @@
       <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="37">
         <v>14</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="36" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="31"/>
@@ -2119,13 +2083,13 @@
       <c r="A16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="21">
-        <v>15</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="37">
+        <v>15</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="31"/>
@@ -2166,13 +2130,13 @@
       <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="37">
         <v>16</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="36" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="31"/>
@@ -2213,13 +2177,13 @@
       <c r="A18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="37">
         <v>17</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="31"/>
@@ -2260,13 +2224,13 @@
       <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="37">
         <v>18</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="36" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="31"/>
@@ -2348,13 +2312,13 @@
       <c r="A21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="37">
         <v>20</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="31"/>
@@ -2395,13 +2359,13 @@
       <c r="A22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="37">
         <v>21</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="31"/>
@@ -2442,13 +2406,13 @@
       <c r="A23" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="37">
         <v>22</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="36" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="31"/>
@@ -2489,13 +2453,13 @@
       <c r="A24" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="37">
         <v>23</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="36" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="31"/>
@@ -2536,13 +2500,13 @@
       <c r="A25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="37">
         <v>24</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="36" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="31"/>
@@ -2583,13 +2547,13 @@
       <c r="A26" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="37">
         <v>25</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="36" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="31"/>
@@ -2671,13 +2635,13 @@
       <c r="A28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="37">
         <v>27</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="36" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="31"/>
@@ -2718,13 +2682,13 @@
       <c r="A29" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="37">
         <v>28</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="36" t="s">
         <v>67</v>
       </c>
       <c r="E29" s="31"/>
@@ -2765,13 +2729,13 @@
       <c r="A30" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="37">
         <v>29</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="31"/>
@@ -2812,13 +2776,13 @@
       <c r="A31" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="37">
         <v>30</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="36" t="s">
         <v>71</v>
       </c>
       <c r="E31" s="26"/>
@@ -2859,13 +2823,13 @@
       <c r="A32" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="37">
         <v>31</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="36" t="s">
         <v>73</v>
       </c>
       <c r="E32" s="31"/>
@@ -2906,13 +2870,13 @@
       <c r="A33" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="37">
         <v>32</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="36" t="s">
         <v>75</v>
       </c>
       <c r="E33" s="31"/>
@@ -2953,13 +2917,13 @@
       <c r="A34" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="37">
         <v>33</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="36" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="31"/>
@@ -3000,13 +2964,13 @@
       <c r="A35" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="37">
         <v>34</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E35" s="31"/>
@@ -3047,13 +3011,13 @@
       <c r="A36" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="37">
         <v>35</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="36" t="s">
         <v>81</v>
       </c>
       <c r="E36" s="31"/>
@@ -3094,13 +3058,13 @@
       <c r="A37" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="37">
         <v>36</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="36" t="s">
         <v>83</v>
       </c>
       <c r="E37" s="31"/>
@@ -3141,13 +3105,13 @@
       <c r="A38" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="37">
         <v>37</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="36" t="s">
         <v>85</v>
       </c>
       <c r="E38" s="31"/>
@@ -3229,13 +3193,13 @@
       <c r="A40" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="37">
         <v>39</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="36" t="s">
         <v>87</v>
       </c>
       <c r="E40" s="26"/>
@@ -3276,9 +3240,15 @@
       <c r="A41" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="37">
+        <v>40</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>159</v>
+      </c>
       <c r="E41" s="26"/>
       <c r="F41" s="35"/>
       <c r="G41" s="24"/>
@@ -3399,13 +3369,13 @@
       <c r="A44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="37">
         <v>43</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="36" t="s">
         <v>133</v>
       </c>
       <c r="E44" s="35"/>
@@ -3446,13 +3416,13 @@
       <c r="A45" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="37">
         <v>44</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="36" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="35"/>
@@ -3493,13 +3463,13 @@
       <c r="A46" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="37">
         <v>45</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="36" t="s">
         <v>137</v>
       </c>
       <c r="E46" s="35"/>
@@ -3540,13 +3510,13 @@
       <c r="A47" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="37">
         <v>46</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="36" t="s">
         <v>139</v>
       </c>
       <c r="E47" s="31"/>
@@ -3587,13 +3557,13 @@
       <c r="A48" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="37">
         <v>47</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="36" t="s">
         <v>141</v>
       </c>
       <c r="E48" s="26"/>
@@ -3634,13 +3604,13 @@
       <c r="A49" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="37">
         <v>48</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="36" t="s">
         <v>89</v>
       </c>
       <c r="E49" s="26"/>
@@ -3681,9 +3651,15 @@
       <c r="A50" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="28"/>
+      <c r="B50" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="37">
+        <v>49</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>161</v>
+      </c>
       <c r="E50" s="26"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
@@ -3763,13 +3739,13 @@
       <c r="A52" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="37">
         <v>51</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="36" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="31"/>
@@ -3810,13 +3786,13 @@
       <c r="A53" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="37">
         <v>52</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="36" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="26"/>
@@ -3857,13 +3833,13 @@
       <c r="A54" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="37">
         <v>53</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="36" t="s">
         <v>143</v>
       </c>
       <c r="E54" s="26"/>
@@ -3904,13 +3880,13 @@
       <c r="A55" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="37">
         <v>54</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="36" t="s">
         <v>145</v>
       </c>
       <c r="E55" s="26"/>
@@ -3951,13 +3927,13 @@
       <c r="A56" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="37">
         <v>55</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="36" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="31"/>
@@ -3998,13 +3974,13 @@
       <c r="A57" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="37">
         <v>56</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="36" t="s">
         <v>147</v>
       </c>
       <c r="E57" s="31"/>
@@ -4045,13 +4021,13 @@
       <c r="A58" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="37">
         <v>57</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="36" t="s">
         <v>149</v>
       </c>
       <c r="E58" s="31"/>
@@ -4133,13 +4109,13 @@
       <c r="A60" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="37">
         <v>59</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="36" t="s">
         <v>151</v>
       </c>
       <c r="E60" s="31"/>
@@ -4180,13 +4156,13 @@
       <c r="A61" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="37">
         <v>60</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="36" t="s">
         <v>97</v>
       </c>
       <c r="E61" s="31"/>
@@ -4227,13 +4203,13 @@
       <c r="A62" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="37">
         <v>61</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="36" t="s">
         <v>153</v>
       </c>
       <c r="E62" s="31"/>
@@ -4274,9 +4250,15 @@
       <c r="A63" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="28"/>
+      <c r="B63" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="37">
+        <v>62</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>163</v>
+      </c>
       <c r="E63" s="31"/>
       <c r="F63" s="31"/>
       <c r="G63" s="24"/>
@@ -4315,9 +4297,15 @@
       <c r="A64" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="28"/>
+      <c r="B64" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="37">
+        <v>63</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="24"/>
@@ -4356,13 +4344,13 @@
       <c r="A65" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="37">
         <v>64</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="36" t="s">
         <v>155</v>
       </c>
       <c r="E65" s="31"/>
@@ -4403,9 +4391,15 @@
       <c r="A66" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="28"/>
+      <c r="B66" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="37">
+        <v>65</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>171</v>
+      </c>
       <c r="E66" s="31"/>
       <c r="F66" s="31"/>
       <c r="G66" s="24"/>
@@ -4444,9 +4438,15 @@
       <c r="A67" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="28"/>
+      <c r="B67" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="37">
+        <v>66</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>167</v>
+      </c>
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="24"/>
@@ -4485,13 +4485,13 @@
       <c r="A68" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="37">
         <v>67</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="36" t="s">
         <v>157</v>
       </c>
       <c r="E68" s="31"/>
@@ -4573,13 +4573,13 @@
       <c r="A70" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="37">
         <v>69</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="36" t="s">
         <v>99</v>
       </c>
       <c r="E70" s="26"/>
@@ -4661,13 +4661,13 @@
       <c r="A72" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="37">
         <v>71</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="36" t="s">
         <v>101</v>
       </c>
       <c r="E72" s="26"/>
@@ -4708,13 +4708,13 @@
       <c r="A73" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="37">
         <v>72</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="36" t="s">
         <v>103</v>
       </c>
       <c r="E73" s="26"/>
@@ -4755,13 +4755,13 @@
       <c r="A74" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="37">
         <v>73</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="36" t="s">
         <v>105</v>
       </c>
       <c r="E74" s="26"/>
@@ -4802,13 +4802,13 @@
       <c r="A75" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="37">
         <v>74</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="36" t="s">
         <v>107</v>
       </c>
       <c r="E75" s="26"/>
@@ -4849,13 +4849,13 @@
       <c r="A76" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="37">
         <v>75</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="36" t="s">
         <v>109</v>
       </c>
       <c r="E76" s="26"/>
@@ -4937,13 +4937,13 @@
       <c r="A78" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="37">
         <v>77</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="36" t="s">
         <v>111</v>
       </c>
       <c r="E78" s="26"/>
@@ -4984,9 +4984,15 @@
       <c r="A79" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="28"/>
+      <c r="B79" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="37">
+        <v>78</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>169</v>
+      </c>
       <c r="E79" s="26"/>
       <c r="F79" s="35"/>
       <c r="G79" s="24"/>
@@ -5066,13 +5072,13 @@
       <c r="A81" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="37">
         <v>80</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="36" t="s">
         <v>113</v>
       </c>
       <c r="E81" s="26"/>
@@ -5113,9 +5119,15 @@
       <c r="A82" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="28"/>
+      <c r="B82" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="37">
+        <v>81</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>173</v>
+      </c>
       <c r="E82" s="26"/>
       <c r="F82" s="35"/>
       <c r="G82" s="24"/>
@@ -5195,9 +5207,15 @@
       <c r="A84" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="28"/>
+      <c r="B84" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="37">
+        <v>83</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>175</v>
+      </c>
       <c r="E84" s="26"/>
       <c r="F84" s="35"/>
       <c r="G84" s="24"/>
@@ -5236,13 +5254,13 @@
       <c r="A85" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="37">
         <v>84</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="36" t="s">
         <v>115</v>
       </c>
       <c r="E85" s="26"/>
@@ -5324,13 +5342,13 @@
       <c r="A87" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="37">
         <v>86</v>
       </c>
-      <c r="D87" s="28" t="s">
+      <c r="D87" s="36" t="s">
         <v>117</v>
       </c>
       <c r="E87" s="26"/>
@@ -5412,9 +5430,15 @@
       <c r="A89" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="28"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="28"/>
+      <c r="B89" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="37">
+        <v>88</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>177</v>
+      </c>
       <c r="E89" s="26"/>
       <c r="F89" s="35"/>
       <c r="G89" s="24"/>
@@ -5453,13 +5477,13 @@
       <c r="A90" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="37">
         <v>89</v>
       </c>
-      <c r="D90" s="28" t="s">
+      <c r="D90" s="36" t="s">
         <v>119</v>
       </c>
       <c r="E90" s="26"/>
@@ -5500,9 +5524,15 @@
       <c r="A91" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="28"/>
+      <c r="B91" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="37">
+        <v>90</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>179</v>
+      </c>
       <c r="E91" s="26"/>
       <c r="F91" s="35"/>
       <c r="G91" s="24"/>
@@ -5541,13 +5571,13 @@
       <c r="A92" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="37">
         <v>91</v>
       </c>
-      <c r="D92" s="28" t="s">
+      <c r="D92" s="36" t="s">
         <v>121</v>
       </c>
       <c r="E92" s="26"/>
@@ -5588,13 +5618,13 @@
       <c r="A93" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="37">
         <v>92</v>
       </c>
-      <c r="D93" s="28" t="s">
+      <c r="D93" s="36" t="s">
         <v>123</v>
       </c>
       <c r="E93" s="26"/>
@@ -5635,13 +5665,13 @@
       <c r="A94" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="37">
         <v>93</v>
       </c>
-      <c r="D94" s="28" t="s">
+      <c r="D94" s="36" t="s">
         <v>125</v>
       </c>
       <c r="E94" s="26"/>
@@ -5723,20 +5753,14 @@
       <c r="A96" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="21">
-        <v>119</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E96" s="35"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="26"/>
       <c r="F96" s="35"/>
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
-      <c r="I96" s="35"/>
+      <c r="I96" s="24"/>
       <c r="J96" s="24"/>
       <c r="K96" s="32" t="s">
         <v>15</v>
@@ -5752,7 +5776,7 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
+      <c r="S96" s="7"/>
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
       <c r="V96" s="5"/>
@@ -5770,20 +5794,14 @@
       <c r="A97" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C97" s="21">
-        <v>120</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>129</v>
-      </c>
+      <c r="B97" s="28"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="28"/>
       <c r="E97" s="26"/>
       <c r="F97" s="35"/>
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
-      <c r="I97" s="35"/>
+      <c r="I97" s="24"/>
       <c r="J97" s="24"/>
       <c r="K97" s="32" t="s">
         <v>15</v>
@@ -5795,16 +5813,16 @@
         <v>1</v>
       </c>
       <c r="N97" s="5"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="10"/>
-      <c r="S97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
@@ -5817,17 +5835,11 @@
       <c r="A98" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B98" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C98" s="21">
-        <v>125</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>131</v>
-      </c>
+      <c r="B98" s="28"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="28"/>
       <c r="E98" s="26"/>
-      <c r="F98" s="24"/>
+      <c r="F98" s="35"/>
       <c r="G98" s="24"/>
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
@@ -5846,7 +5858,7 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="7"/>
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="5"/>
@@ -5887,7 +5899,7 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="7"/>
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
       <c r="V99" s="5"/>
@@ -5905,33 +5917,15 @@
       <c r="A100" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B100" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C100" s="21">
-        <v>40</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F100" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G100" s="24">
-        <v>606</v>
-      </c>
-      <c r="H100" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I100" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="J100" s="24" t="s">
-        <v>177</v>
-      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
       <c r="K100" s="32" t="s">
         <v>15</v>
       </c>
@@ -5945,8 +5939,8 @@
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="5"/>
@@ -5964,33 +5958,15 @@
       <c r="A101" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C101" s="21">
-        <v>49</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F101" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G101" s="24">
-        <v>62</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I101" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="J101" s="24" t="s">
-        <v>181</v>
-      </c>
+      <c r="B101" s="28"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
       <c r="K101" s="32" t="s">
         <v>15</v>
       </c>
@@ -6001,16 +5977,16 @@
         <v>1</v>
       </c>
       <c r="N101" s="5"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
@@ -6023,33 +5999,21 @@
       <c r="A102" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C102" s="21">
-        <v>62</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F102" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="G102" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H102" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I102" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="J102" s="24" t="s">
-        <v>186</v>
-      </c>
+      <c r="B102" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="37">
+        <v>101</v>
+      </c>
+      <c r="D102" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
       <c r="K102" s="32" t="s">
         <v>15</v>
       </c>
@@ -6064,7 +6028,7 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="7"/>
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5"/>
@@ -6082,33 +6046,15 @@
       <c r="A103" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B103" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C103" s="21">
-        <v>63</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G103" s="24">
-        <v>40</v>
-      </c>
-      <c r="H103" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I103" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J103" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="B103" s="28"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
       <c r="K103" s="32" t="s">
         <v>15</v>
       </c>
@@ -6120,15 +6066,15 @@
       </c>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
+      <c r="S103" s="7"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="7"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
       <c r="AA103" s="6"/>
@@ -6141,33 +6087,15 @@
       <c r="A104" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="21">
-        <v>66</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F104" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G104" s="24">
-        <v>91</v>
-      </c>
-      <c r="H104" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I104" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="J104" s="24" t="s">
-        <v>193</v>
-      </c>
+      <c r="B104" s="28"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
       <c r="K104" s="32" t="s">
         <v>15</v>
       </c>
@@ -6180,14 +6108,14 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
-      <c r="Q104" s="7"/>
+      <c r="Q104" s="5"/>
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
-      <c r="X104" s="7"/>
+      <c r="X104" s="5"/>
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
@@ -6200,33 +6128,15 @@
       <c r="A105" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B105" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105" s="21">
-        <v>78</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F105" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="G105" s="24">
-        <v>159</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I105" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="J105" s="24" t="s">
-        <v>197</v>
-      </c>
+      <c r="B105" s="28"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
       <c r="K105" s="32" t="s">
         <v>15</v>
       </c>
@@ -6259,33 +6169,21 @@
       <c r="A106" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C106" s="21">
-        <v>65</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="F106" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="G106" s="24">
-        <v>598</v>
-      </c>
-      <c r="H106" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I106" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="J106" s="24" t="s">
-        <v>202</v>
-      </c>
+      <c r="B106" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="37">
+        <v>105</v>
+      </c>
+      <c r="D106" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E106" s="26"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
       <c r="K106" s="32" t="s">
         <v>15</v>
       </c>
@@ -6298,14 +6196,14 @@
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
-      <c r="Q106" s="7"/>
+      <c r="Q106" s="5"/>
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
-      <c r="X106" s="7"/>
+      <c r="X106" s="5"/>
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
@@ -6318,33 +6216,21 @@
       <c r="A107" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C107" s="21">
-        <v>81</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E107" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F107" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="G107" s="24">
-        <v>375</v>
-      </c>
-      <c r="H107" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I107" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="J107" s="24" t="s">
-        <v>206</v>
-      </c>
+      <c r="B107" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="37">
+        <v>106</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
       <c r="K107" s="32" t="s">
         <v>15</v>
       </c>
@@ -6357,14 +6243,14 @@
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
-      <c r="Q107" s="7"/>
+      <c r="Q107" s="5"/>
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
-      <c r="X107" s="7"/>
+      <c r="X107" s="5"/>
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
@@ -6381,7 +6267,7 @@
       <c r="C108" s="21"/>
       <c r="D108" s="28"/>
       <c r="E108" s="26"/>
-      <c r="F108" s="24"/>
+      <c r="F108" s="35"/>
       <c r="G108" s="24"/>
       <c r="H108" s="24"/>
       <c r="I108" s="24"/>
@@ -6399,8 +6285,8 @@
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
-      <c r="R108" s="10"/>
-      <c r="S108" s="5"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="5"/>
@@ -6418,14 +6304,20 @@
       <c r="A109" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="24"/>
+      <c r="B109" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="37">
+        <v>108</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="35"/>
       <c r="G109" s="24"/>
       <c r="H109" s="24"/>
-      <c r="I109" s="35"/>
+      <c r="I109" s="24"/>
       <c r="J109" s="24"/>
       <c r="K109" s="32" t="s">
         <v>15</v>
@@ -6439,14 +6331,14 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
-      <c r="Q109" s="7"/>
+      <c r="Q109" s="5"/>
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
-      <c r="X109" s="7"/>
+      <c r="X109" s="5"/>
       <c r="Y109" s="6"/>
       <c r="Z109" s="6"/>
       <c r="AA109" s="6"/>
@@ -6466,7 +6358,7 @@
       <c r="F110" s="35"/>
       <c r="G110" s="24"/>
       <c r="H110" s="24"/>
-      <c r="I110" s="35"/>
+      <c r="I110" s="24"/>
       <c r="J110" s="24"/>
       <c r="K110" s="32" t="s">
         <v>15</v>
@@ -6482,7 +6374,7 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="5"/>
+      <c r="S110" s="7"/>
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
@@ -6521,14 +6413,14 @@
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
-      <c r="Q111" s="7"/>
+      <c r="Q111" s="5"/>
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
-      <c r="X111" s="7"/>
+      <c r="X111" s="5"/>
       <c r="Y111" s="6"/>
       <c r="Z111" s="6"/>
       <c r="AA111" s="6"/>
@@ -6562,14 +6454,14 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
-      <c r="Q112" s="7"/>
+      <c r="Q112" s="5"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="5"/>
+      <c r="S112" s="7"/>
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
-      <c r="X112" s="7"/>
+      <c r="X112" s="5"/>
       <c r="Y112" s="6"/>
       <c r="Z112" s="6"/>
       <c r="AA112" s="6"/>
@@ -6585,8 +6477,8 @@
       <c r="B113" s="28"/>
       <c r="C113" s="21"/>
       <c r="D113" s="28"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="24"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="35"/>
       <c r="G113" s="24"/>
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
@@ -6602,15 +6494,15 @@
       </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="5"/>
+      <c r="S113" s="7"/>
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
-      <c r="W113" s="7"/>
-      <c r="X113" s="7"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
       <c r="Y113" s="6"/>
       <c r="Z113" s="6"/>
       <c r="AA113" s="6"/>
@@ -6623,14 +6515,20 @@
       <c r="A114" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B114" s="28"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="26"/>
+      <c r="B114" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="37">
+        <v>113</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E114" s="24"/>
       <c r="F114" s="35"/>
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
-      <c r="I114" s="35"/>
+      <c r="I114" s="24"/>
       <c r="J114" s="24"/>
       <c r="K114" s="32" t="s">
         <v>15</v>
@@ -6643,15 +6541,15 @@
       </c>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="5"/>
+      <c r="S114" s="7"/>
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
       <c r="V114" s="5"/>
-      <c r="W114" s="7"/>
-      <c r="X114" s="7"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
       <c r="Y114" s="6"/>
       <c r="Z114" s="6"/>
       <c r="AA114" s="6"/>
@@ -6685,14 +6583,14 @@
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
-      <c r="Q115" s="7"/>
+      <c r="Q115" s="5"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="5"/>
+      <c r="S115" s="7"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
-      <c r="X115" s="7"/>
+      <c r="X115" s="5"/>
       <c r="Y115" s="6"/>
       <c r="Z115" s="6"/>
       <c r="AA115" s="6"/>
@@ -6712,7 +6610,7 @@
       <c r="F116" s="35"/>
       <c r="G116" s="24"/>
       <c r="H116" s="24"/>
-      <c r="I116" s="35"/>
+      <c r="I116" s="24"/>
       <c r="J116" s="24"/>
       <c r="K116" s="32" t="s">
         <v>15</v>
@@ -6725,15 +6623,15 @@
       </c>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="V116" s="5"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="7"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
       <c r="Y116" s="6"/>
       <c r="Z116" s="6"/>
       <c r="AA116" s="6"/>
@@ -6753,7 +6651,7 @@
       <c r="F117" s="35"/>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
-      <c r="I117" s="35"/>
+      <c r="I117" s="24"/>
       <c r="J117" s="24"/>
       <c r="K117" s="32" t="s">
         <v>15</v>
@@ -6765,16 +6663,16 @@
         <v>1</v>
       </c>
       <c r="N117" s="5"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="7"/>
-      <c r="X117" s="7"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
+      <c r="X117" s="5"/>
       <c r="Y117" s="6"/>
       <c r="Z117" s="6"/>
       <c r="AA117" s="6"/>
@@ -6791,11 +6689,11 @@
       <c r="C118" s="21"/>
       <c r="D118" s="28"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="24"/>
+      <c r="F118" s="35"/>
       <c r="G118" s="24"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="25"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
       <c r="K118" s="32" t="s">
         <v>15</v>
       </c>
@@ -6807,15 +6705,15 @@
       </c>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="5"/>
+      <c r="S118" s="7"/>
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
       <c r="V118" s="5"/>
-      <c r="W118" s="7"/>
-      <c r="X118" s="7"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
       <c r="Y118" s="6"/>
       <c r="Z118" s="6"/>
       <c r="AA118" s="6"/>
@@ -6828,15 +6726,21 @@
       <c r="A119" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B119" s="28"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="28"/>
+      <c r="B119" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" s="37">
+        <v>118</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>191</v>
+      </c>
       <c r="E119" s="26"/>
-      <c r="F119" s="30"/>
+      <c r="F119" s="35"/>
       <c r="G119" s="24"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="30"/>
-      <c r="J119" s="25"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
       <c r="K119" s="32" t="s">
         <v>15</v>
       </c>
@@ -6847,16 +6751,16 @@
         <v>1</v>
       </c>
       <c r="N119" s="5"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="7"/>
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
-      <c r="V119" s="7"/>
-      <c r="W119" s="7"/>
-      <c r="X119" s="7"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
       <c r="Y119" s="6"/>
       <c r="Z119" s="6"/>
       <c r="AA119" s="6"/>
@@ -6869,15 +6773,21 @@
       <c r="A120" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B120" s="28"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="30"/>
+      <c r="B120" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="37">
+        <v>119</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
       <c r="G120" s="24"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="30"/>
-      <c r="J120" s="25"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="24"/>
       <c r="K120" s="32" t="s">
         <v>15</v>
       </c>
@@ -6889,15 +6799,15 @@
       </c>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
       <c r="R120" s="7"/>
       <c r="S120" s="5"/>
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
       <c r="V120" s="5"/>
-      <c r="W120" s="7"/>
-      <c r="X120" s="7"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
       <c r="Y120" s="6"/>
       <c r="Z120" s="6"/>
       <c r="AA120" s="6"/>
@@ -6910,15 +6820,21 @@
       <c r="A121" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B121" s="28"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="28"/>
+      <c r="B121" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="37">
+        <v>120</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>129</v>
+      </c>
       <c r="E121" s="26"/>
-      <c r="F121" s="24"/>
+      <c r="F121" s="35"/>
       <c r="G121" s="24"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="30"/>
-      <c r="J121" s="25"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="35"/>
+      <c r="J121" s="24"/>
       <c r="K121" s="32" t="s">
         <v>15</v>
       </c>
@@ -6929,15 +6845,15 @@
         <v>1</v>
       </c>
       <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
+      <c r="R121" s="10"/>
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
-      <c r="V121" s="5"/>
-      <c r="W121" s="5"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="6"/>
       <c r="Z121" s="6"/>
@@ -6955,11 +6871,11 @@
       <c r="C122" s="21"/>
       <c r="D122" s="28"/>
       <c r="E122" s="26"/>
-      <c r="F122" s="30"/>
+      <c r="F122" s="24"/>
       <c r="G122" s="24"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="30"/>
-      <c r="J122" s="25"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
       <c r="K122" s="32" t="s">
         <v>15</v>
       </c>
@@ -6971,15 +6887,15 @@
       </c>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="7"/>
+      <c r="S122" s="5"/>
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="5"/>
-      <c r="W122" s="7"/>
-      <c r="X122" s="7"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
       <c r="AA122" s="6"/>
@@ -6996,11 +6912,11 @@
       <c r="C123" s="21"/>
       <c r="D123" s="28"/>
       <c r="E123" s="26"/>
-      <c r="F123" s="30"/>
+      <c r="F123" s="35"/>
       <c r="G123" s="24"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="30"/>
-      <c r="J123" s="25"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
       <c r="K123" s="32" t="s">
         <v>15</v>
       </c>
@@ -7012,15 +6928,15 @@
       </c>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
       <c r="V123" s="5"/>
-      <c r="W123" s="7"/>
-      <c r="X123" s="7"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
       <c r="Y123" s="6"/>
       <c r="Z123" s="6"/>
       <c r="AA123" s="6"/>
@@ -7037,11 +6953,11 @@
       <c r="C124" s="21"/>
       <c r="D124" s="28"/>
       <c r="E124" s="26"/>
-      <c r="F124" s="30"/>
+      <c r="F124" s="24"/>
       <c r="G124" s="24"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="30"/>
-      <c r="J124" s="25"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
       <c r="K124" s="32" t="s">
         <v>15</v>
       </c>
@@ -7056,8 +6972,8 @@
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
       <c r="R124" s="10"/>
-      <c r="S124" s="10"/>
-      <c r="T124" s="10"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
       <c r="U124" s="5"/>
       <c r="V124" s="5"/>
       <c r="W124" s="5"/>
@@ -7078,10 +6994,10 @@
       <c r="C125" s="21"/>
       <c r="D125" s="28"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="30"/>
+      <c r="F125" s="24"/>
       <c r="G125" s="24"/>
       <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
+      <c r="I125" s="30"/>
       <c r="J125" s="25"/>
       <c r="K125" s="32" t="s">
         <v>15</v>
@@ -7097,7 +7013,7 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="7"/>
+      <c r="S125" s="5"/>
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
       <c r="V125" s="5"/>
@@ -7115,9 +7031,15 @@
       <c r="A126" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="28"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="28"/>
+      <c r="B126" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="37">
+        <v>125</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>131</v>
+      </c>
       <c r="E126" s="26"/>
       <c r="F126" s="30"/>
       <c r="G126" s="24"/>
@@ -7134,14 +7056,14 @@
         <v>1</v>
       </c>
       <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
+      <c r="O126" s="7"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
-      <c r="R126" s="5"/>
+      <c r="R126" s="7"/>
       <c r="S126" s="5"/>
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
-      <c r="V126" s="5"/>
+      <c r="V126" s="7"/>
       <c r="W126" s="7"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="6"/>
@@ -7160,10 +7082,10 @@
       <c r="C127" s="21"/>
       <c r="D127" s="28"/>
       <c r="E127" s="26"/>
-      <c r="F127" s="23"/>
+      <c r="F127" s="30"/>
       <c r="G127" s="24"/>
       <c r="H127" s="25"/>
-      <c r="I127" s="23"/>
+      <c r="I127" s="30"/>
       <c r="J127" s="25"/>
       <c r="K127" s="32" t="s">
         <v>15</v>
@@ -7175,14 +7097,14 @@
         <v>1</v>
       </c>
       <c r="N127" s="5"/>
-      <c r="O127" s="7"/>
+      <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
-      <c r="V127" s="7"/>
+      <c r="V127" s="5"/>
       <c r="W127" s="7"/>
       <c r="X127" s="7"/>
       <c r="Y127" s="6"/>
@@ -7204,7 +7126,7 @@
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
       <c r="H128" s="25"/>
-      <c r="I128" s="23"/>
+      <c r="I128" s="30"/>
       <c r="J128" s="25"/>
       <c r="K128" s="32" t="s">
         <v>15</v>
@@ -7216,15 +7138,15 @@
         <v>1</v>
       </c>
       <c r="N128" s="5"/>
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
-      <c r="V128" s="7"/>
-      <c r="W128" s="7"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
       <c r="X128" s="7"/>
       <c r="Y128" s="6"/>
       <c r="Z128" s="6"/>
@@ -7242,10 +7164,10 @@
       <c r="C129" s="21"/>
       <c r="D129" s="28"/>
       <c r="E129" s="26"/>
-      <c r="F129" s="24"/>
+      <c r="F129" s="30"/>
       <c r="G129" s="24"/>
       <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
+      <c r="I129" s="30"/>
       <c r="J129" s="25"/>
       <c r="K129" s="32" t="s">
         <v>15</v>
@@ -7256,15 +7178,15 @@
       <c r="M129" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="7"/>
       <c r="T129" s="5"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="7"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
       <c r="W129" s="7"/>
       <c r="X129" s="7"/>
       <c r="Y129" s="6"/>
@@ -7283,10 +7205,10 @@
       <c r="C130" s="21"/>
       <c r="D130" s="28"/>
       <c r="E130" s="26"/>
-      <c r="F130" s="24"/>
+      <c r="F130" s="30"/>
       <c r="G130" s="24"/>
       <c r="H130" s="25"/>
-      <c r="I130" s="23"/>
+      <c r="I130" s="30"/>
       <c r="J130" s="25"/>
       <c r="K130" s="32" t="s">
         <v>15</v>
@@ -7302,7 +7224,7 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="7"/>
+      <c r="S130" s="5"/>
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
       <c r="V130" s="5"/>
@@ -7324,10 +7246,10 @@
       <c r="C131" s="21"/>
       <c r="D131" s="28"/>
       <c r="E131" s="26"/>
-      <c r="F131" s="24"/>
+      <c r="F131" s="30"/>
       <c r="G131" s="24"/>
       <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
+      <c r="I131" s="30"/>
       <c r="J131" s="25"/>
       <c r="K131" s="32" t="s">
         <v>15</v>
@@ -7341,14 +7263,14 @@
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
-      <c r="Q131" s="7"/>
-      <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+      <c r="T131" s="10"/>
       <c r="U131" s="5"/>
       <c r="V131" s="5"/>
       <c r="W131" s="5"/>
-      <c r="X131" s="7"/>
+      <c r="X131" s="5"/>
       <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
@@ -7365,10 +7287,10 @@
       <c r="C132" s="21"/>
       <c r="D132" s="28"/>
       <c r="E132" s="26"/>
-      <c r="F132" s="24"/>
+      <c r="F132" s="30"/>
       <c r="G132" s="24"/>
       <c r="H132" s="25"/>
-      <c r="I132" s="24"/>
+      <c r="I132" s="25"/>
       <c r="J132" s="25"/>
       <c r="K132" s="32" t="s">
         <v>15</v>
@@ -7384,7 +7306,7 @@
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
       <c r="R132" s="7"/>
-      <c r="S132" s="5"/>
+      <c r="S132" s="7"/>
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
       <c r="V132" s="5"/>
@@ -7406,10 +7328,10 @@
       <c r="C133" s="21"/>
       <c r="D133" s="28"/>
       <c r="E133" s="26"/>
-      <c r="F133" s="24"/>
+      <c r="F133" s="30"/>
       <c r="G133" s="24"/>
       <c r="H133" s="25"/>
-      <c r="I133" s="23"/>
+      <c r="I133" s="30"/>
       <c r="J133" s="25"/>
       <c r="K133" s="32" t="s">
         <v>15</v>
@@ -7422,14 +7344,14 @@
       </c>
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
+      <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
-      <c r="R133" s="7"/>
+      <c r="R133" s="5"/>
       <c r="S133" s="5"/>
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
       <c r="V133" s="5"/>
-      <c r="W133" s="5"/>
+      <c r="W133" s="7"/>
       <c r="X133" s="7"/>
       <c r="Y133" s="6"/>
       <c r="Z133" s="6"/>
@@ -7447,10 +7369,10 @@
       <c r="C134" s="21"/>
       <c r="D134" s="28"/>
       <c r="E134" s="26"/>
-      <c r="F134" s="24"/>
+      <c r="F134" s="23"/>
       <c r="G134" s="24"/>
       <c r="H134" s="25"/>
-      <c r="I134" s="24"/>
+      <c r="I134" s="23"/>
       <c r="J134" s="25"/>
       <c r="K134" s="32" t="s">
         <v>15</v>
@@ -7503,14 +7425,14 @@
         <v>1</v>
       </c>
       <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
+      <c r="O135" s="7"/>
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
       <c r="R135" s="7"/>
-      <c r="S135" s="7"/>
+      <c r="S135" s="5"/>
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
-      <c r="V135" s="5"/>
+      <c r="V135" s="7"/>
       <c r="W135" s="7"/>
       <c r="X135" s="7"/>
       <c r="Y135" s="6"/>
@@ -7529,10 +7451,10 @@
       <c r="C136" s="21"/>
       <c r="D136" s="28"/>
       <c r="E136" s="26"/>
-      <c r="F136" s="23"/>
+      <c r="F136" s="24"/>
       <c r="G136" s="24"/>
       <c r="H136" s="25"/>
-      <c r="I136" s="24"/>
+      <c r="I136" s="25"/>
       <c r="J136" s="25"/>
       <c r="K136" s="32" t="s">
         <v>15</v>
@@ -7543,16 +7465,16 @@
       <c r="M136" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
-      <c r="R136" s="5"/>
+      <c r="R136" s="7"/>
       <c r="S136" s="5"/>
       <c r="T136" s="5"/>
-      <c r="U136" s="5"/>
-      <c r="V136" s="5"/>
-      <c r="W136" s="5"/>
+      <c r="U136" s="7"/>
+      <c r="V136" s="7"/>
+      <c r="W136" s="7"/>
       <c r="X136" s="7"/>
       <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
@@ -7573,7 +7495,7 @@
       <c r="F137" s="24"/>
       <c r="G137" s="24"/>
       <c r="H137" s="25"/>
-      <c r="I137" s="24"/>
+      <c r="I137" s="23"/>
       <c r="J137" s="25"/>
       <c r="K137" s="32" t="s">
         <v>15</v>
@@ -7585,16 +7507,16 @@
         <v>1</v>
       </c>
       <c r="N137" s="5"/>
-      <c r="O137" s="10"/>
-      <c r="P137" s="10"/>
-      <c r="Q137" s="10"/>
-      <c r="R137" s="10"/>
-      <c r="S137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
-      <c r="V137" s="10"/>
-      <c r="W137" s="10"/>
-      <c r="X137" s="10"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7"/>
       <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
       <c r="AA137" s="6"/>
@@ -7614,7 +7536,7 @@
       <c r="F138" s="24"/>
       <c r="G138" s="24"/>
       <c r="H138" s="25"/>
-      <c r="I138" s="23"/>
+      <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="32" t="s">
         <v>15</v>
@@ -7627,14 +7549,14 @@
       </c>
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
-      <c r="P138" s="7"/>
+      <c r="P138" s="5"/>
       <c r="Q138" s="7"/>
       <c r="R138" s="7"/>
       <c r="S138" s="5"/>
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
       <c r="V138" s="5"/>
-      <c r="W138" s="7"/>
+      <c r="W138" s="5"/>
       <c r="X138" s="7"/>
       <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
@@ -7668,15 +7590,15 @@
       </c>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
       <c r="R139" s="7"/>
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
       <c r="V139" s="5"/>
-      <c r="W139" s="5"/>
-      <c r="X139" s="5"/>
+      <c r="W139" s="7"/>
+      <c r="X139" s="7"/>
       <c r="Y139" s="6"/>
       <c r="Z139" s="6"/>
       <c r="AA139" s="6"/>
@@ -7693,10 +7615,10 @@
       <c r="C140" s="21"/>
       <c r="D140" s="28"/>
       <c r="E140" s="26"/>
-      <c r="F140" s="23"/>
+      <c r="F140" s="24"/>
       <c r="G140" s="24"/>
       <c r="H140" s="25"/>
-      <c r="I140" s="24"/>
+      <c r="I140" s="23"/>
       <c r="J140" s="25"/>
       <c r="K140" s="32" t="s">
         <v>15</v>
@@ -7734,7 +7656,7 @@
       <c r="C141" s="21"/>
       <c r="D141" s="28"/>
       <c r="E141" s="26"/>
-      <c r="F141" s="23"/>
+      <c r="F141" s="24"/>
       <c r="G141" s="24"/>
       <c r="H141" s="25"/>
       <c r="I141" s="24"/>
@@ -7749,15 +7671,15 @@
         <v>1</v>
       </c>
       <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
       <c r="R141" s="7"/>
       <c r="S141" s="5"/>
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
+      <c r="V141" s="7"/>
+      <c r="W141" s="7"/>
       <c r="X141" s="7"/>
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
@@ -7774,11 +7696,11 @@
       <c r="B142" s="28"/>
       <c r="C142" s="21"/>
       <c r="D142" s="28"/>
-      <c r="E142" s="29"/>
+      <c r="E142" s="26"/>
       <c r="F142" s="24"/>
       <c r="G142" s="24"/>
       <c r="H142" s="25"/>
-      <c r="I142" s="24"/>
+      <c r="I142" s="23"/>
       <c r="J142" s="25"/>
       <c r="K142" s="32" t="s">
         <v>15</v>
@@ -7791,14 +7713,14 @@
       </c>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
+      <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
       <c r="R142" s="7"/>
-      <c r="S142" s="5"/>
+      <c r="S142" s="7"/>
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
       <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
+      <c r="W142" s="7"/>
       <c r="X142" s="7"/>
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
@@ -7816,10 +7738,10 @@
       <c r="C143" s="21"/>
       <c r="D143" s="28"/>
       <c r="E143" s="26"/>
-      <c r="F143" s="24"/>
+      <c r="F143" s="23"/>
       <c r="G143" s="24"/>
       <c r="H143" s="25"/>
-      <c r="I143" s="30"/>
+      <c r="I143" s="24"/>
       <c r="J143" s="25"/>
       <c r="K143" s="32" t="s">
         <v>15</v>
@@ -7830,16 +7752,16 @@
       <c r="M143" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
-      <c r="P143" s="7"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
       <c r="Q143" s="7"/>
-      <c r="R143" s="7"/>
-      <c r="S143" s="7"/>
-      <c r="T143" s="7"/>
-      <c r="U143" s="7"/>
-      <c r="V143" s="7"/>
-      <c r="W143" s="7"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
       <c r="X143" s="7"/>
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
@@ -7860,7 +7782,7 @@
       <c r="F144" s="24"/>
       <c r="G144" s="24"/>
       <c r="H144" s="25"/>
-      <c r="I144" s="30"/>
+      <c r="I144" s="24"/>
       <c r="J144" s="25"/>
       <c r="K144" s="32" t="s">
         <v>15</v>
@@ -7872,16 +7794,16 @@
         <v>1</v>
       </c>
       <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="7"/>
-      <c r="R144" s="7"/>
+      <c r="O144" s="10"/>
+      <c r="P144" s="10"/>
+      <c r="Q144" s="10"/>
+      <c r="R144" s="10"/>
       <c r="S144" s="5"/>
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
-      <c r="V144" s="5"/>
-      <c r="W144" s="5"/>
-      <c r="X144" s="7"/>
+      <c r="V144" s="10"/>
+      <c r="W144" s="10"/>
+      <c r="X144" s="10"/>
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
       <c r="AA144" s="6"/>
@@ -7898,10 +7820,10 @@
       <c r="C145" s="21"/>
       <c r="D145" s="28"/>
       <c r="E145" s="26"/>
-      <c r="F145" s="30"/>
+      <c r="F145" s="24"/>
       <c r="G145" s="24"/>
       <c r="H145" s="25"/>
-      <c r="I145" s="30"/>
+      <c r="I145" s="23"/>
       <c r="J145" s="25"/>
       <c r="K145" s="32" t="s">
         <v>15</v>
@@ -7939,7 +7861,7 @@
       <c r="C146" s="21"/>
       <c r="D146" s="28"/>
       <c r="E146" s="26"/>
-      <c r="F146" s="30"/>
+      <c r="F146" s="24"/>
       <c r="G146" s="24"/>
       <c r="H146" s="25"/>
       <c r="I146" s="24"/>
@@ -7955,15 +7877,15 @@
       </c>
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="7"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
       <c r="R146" s="7"/>
       <c r="S146" s="5"/>
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
       <c r="V146" s="5"/>
-      <c r="W146" s="7"/>
-      <c r="X146" s="7"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
       <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
       <c r="AA146" s="6"/>
@@ -7980,7 +7902,7 @@
       <c r="C147" s="21"/>
       <c r="D147" s="28"/>
       <c r="E147" s="26"/>
-      <c r="F147" s="24"/>
+      <c r="F147" s="23"/>
       <c r="G147" s="24"/>
       <c r="H147" s="25"/>
       <c r="I147" s="24"/>
@@ -7995,15 +7917,15 @@
         <v>1</v>
       </c>
       <c r="N147" s="5"/>
-      <c r="O147" s="7"/>
-      <c r="P147" s="7"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
       <c r="Q147" s="7"/>
       <c r="R147" s="7"/>
-      <c r="S147" s="7"/>
+      <c r="S147" s="5"/>
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
-      <c r="V147" s="7"/>
-      <c r="W147" s="7"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
       <c r="X147" s="7"/>
       <c r="Y147" s="6"/>
       <c r="Z147" s="6"/>
@@ -8021,7 +7943,7 @@
       <c r="C148" s="21"/>
       <c r="D148" s="28"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="24"/>
+      <c r="F148" s="23"/>
       <c r="G148" s="24"/>
       <c r="H148" s="25"/>
       <c r="I148" s="24"/>
@@ -8061,7 +7983,7 @@
       <c r="B149" s="28"/>
       <c r="C149" s="21"/>
       <c r="D149" s="28"/>
-      <c r="E149" s="26"/>
+      <c r="E149" s="29"/>
       <c r="F149" s="24"/>
       <c r="G149" s="24"/>
       <c r="H149" s="25"/>
@@ -8078,14 +8000,14 @@
       </c>
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
-      <c r="P149" s="7"/>
+      <c r="P149" s="5"/>
       <c r="Q149" s="7"/>
       <c r="R149" s="7"/>
       <c r="S149" s="5"/>
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
       <c r="V149" s="5"/>
-      <c r="W149" s="7"/>
+      <c r="W149" s="5"/>
       <c r="X149" s="7"/>
       <c r="Y149" s="6"/>
       <c r="Z149" s="6"/>
@@ -8106,7 +8028,7 @@
       <c r="F150" s="24"/>
       <c r="G150" s="24"/>
       <c r="H150" s="25"/>
-      <c r="I150" s="24"/>
+      <c r="I150" s="30"/>
       <c r="J150" s="25"/>
       <c r="K150" s="32" t="s">
         <v>15</v>
@@ -8117,16 +8039,16 @@
       <c r="M150" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
       <c r="Q150" s="7"/>
       <c r="R150" s="7"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5"/>
-      <c r="V150" s="5"/>
-      <c r="W150" s="5"/>
+      <c r="S150" s="7"/>
+      <c r="T150" s="7"/>
+      <c r="U150" s="7"/>
+      <c r="V150" s="7"/>
+      <c r="W150" s="7"/>
       <c r="X150" s="7"/>
       <c r="Y150" s="6"/>
       <c r="Z150" s="6"/>
@@ -8147,7 +8069,7 @@
       <c r="F151" s="24"/>
       <c r="G151" s="24"/>
       <c r="H151" s="25"/>
-      <c r="I151" s="24"/>
+      <c r="I151" s="30"/>
       <c r="J151" s="25"/>
       <c r="K151" s="32" t="s">
         <v>15</v>
@@ -8160,14 +8082,14 @@
       </c>
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
-      <c r="P151" s="7"/>
+      <c r="P151" s="5"/>
       <c r="Q151" s="7"/>
       <c r="R151" s="7"/>
-      <c r="S151" s="7"/>
+      <c r="S151" s="5"/>
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
       <c r="V151" s="5"/>
-      <c r="W151" s="7"/>
+      <c r="W151" s="5"/>
       <c r="X151" s="7"/>
       <c r="Y151" s="6"/>
       <c r="Z151" s="6"/>
@@ -8185,10 +8107,10 @@
       <c r="C152" s="21"/>
       <c r="D152" s="28"/>
       <c r="E152" s="26"/>
-      <c r="F152" s="24"/>
+      <c r="F152" s="30"/>
       <c r="G152" s="24"/>
       <c r="H152" s="25"/>
-      <c r="I152" s="24"/>
+      <c r="I152" s="30"/>
       <c r="J152" s="25"/>
       <c r="K152" s="32" t="s">
         <v>15</v>
@@ -8200,14 +8122,14 @@
         <v>1</v>
       </c>
       <c r="N152" s="5"/>
-      <c r="O152" s="7"/>
+      <c r="O152" s="5"/>
       <c r="P152" s="7"/>
       <c r="Q152" s="7"/>
       <c r="R152" s="7"/>
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
-      <c r="V152" s="7"/>
+      <c r="V152" s="5"/>
       <c r="W152" s="7"/>
       <c r="X152" s="7"/>
       <c r="Y152" s="6"/>
@@ -8226,7 +8148,7 @@
       <c r="C153" s="21"/>
       <c r="D153" s="28"/>
       <c r="E153" s="26"/>
-      <c r="F153" s="24"/>
+      <c r="F153" s="30"/>
       <c r="G153" s="24"/>
       <c r="H153" s="25"/>
       <c r="I153" s="24"/>
@@ -8282,15 +8204,15 @@
         <v>1</v>
       </c>
       <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="7"/>
       <c r="T154" s="5"/>
       <c r="U154" s="5"/>
-      <c r="V154" s="5"/>
-      <c r="W154" s="5"/>
+      <c r="V154" s="7"/>
+      <c r="W154" s="7"/>
       <c r="X154" s="7"/>
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
@@ -8323,15 +8245,15 @@
         <v>1</v>
       </c>
       <c r="N155" s="5"/>
-      <c r="O155" s="7"/>
-      <c r="P155" s="7"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
       <c r="Q155" s="7"/>
       <c r="R155" s="7"/>
       <c r="S155" s="5"/>
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
-      <c r="V155" s="7"/>
-      <c r="W155" s="7"/>
+      <c r="V155" s="5"/>
+      <c r="W155" s="5"/>
       <c r="X155" s="7"/>
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
@@ -8365,15 +8287,15 @@
       </c>
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7"/>
       <c r="R156" s="7"/>
       <c r="S156" s="5"/>
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
       <c r="V156" s="5"/>
-      <c r="W156" s="5"/>
-      <c r="X156" s="5"/>
+      <c r="W156" s="7"/>
+      <c r="X156" s="7"/>
       <c r="Y156" s="6"/>
       <c r="Z156" s="6"/>
       <c r="AA156" s="6"/>
@@ -8408,7 +8330,7 @@
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="7"/>
-      <c r="R157" s="5"/>
+      <c r="R157" s="7"/>
       <c r="S157" s="5"/>
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
@@ -8447,15 +8369,15 @@
       </c>
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
       <c r="R158" s="7"/>
-      <c r="S158" s="5"/>
+      <c r="S158" s="7"/>
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
       <c r="V158" s="5"/>
-      <c r="W158" s="5"/>
-      <c r="X158" s="5"/>
+      <c r="W158" s="7"/>
+      <c r="X158" s="7"/>
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
       <c r="AA158" s="6"/>
@@ -8487,15 +8409,15 @@
         <v>1</v>
       </c>
       <c r="N159" s="5"/>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
       <c r="R159" s="7"/>
       <c r="S159" s="5"/>
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
-      <c r="V159" s="5"/>
-      <c r="W159" s="5"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
       <c r="X159" s="7"/>
       <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
@@ -8570,14 +8492,14 @@
       </c>
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
-      <c r="P161" s="7"/>
+      <c r="P161" s="5"/>
       <c r="Q161" s="7"/>
-      <c r="R161" s="7"/>
-      <c r="S161" s="7"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
       <c r="V161" s="5"/>
-      <c r="W161" s="7"/>
+      <c r="W161" s="5"/>
       <c r="X161" s="7"/>
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
@@ -8610,16 +8532,16 @@
         <v>1</v>
       </c>
       <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="10"/>
-      <c r="Q162" s="10"/>
-      <c r="R162" s="10"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7"/>
+      <c r="R162" s="7"/>
       <c r="S162" s="5"/>
       <c r="T162" s="5"/>
       <c r="U162" s="5"/>
-      <c r="V162" s="5"/>
-      <c r="W162" s="10"/>
-      <c r="X162" s="10"/>
+      <c r="V162" s="7"/>
+      <c r="W162" s="7"/>
+      <c r="X162" s="7"/>
       <c r="Y162" s="6"/>
       <c r="Z162" s="6"/>
       <c r="AA162" s="6"/>
@@ -8653,14 +8575,14 @@
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="P163" s="5"/>
-      <c r="Q163" s="7"/>
+      <c r="Q163" s="5"/>
       <c r="R163" s="7"/>
-      <c r="S163" s="7"/>
+      <c r="S163" s="5"/>
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
       <c r="V163" s="5"/>
       <c r="W163" s="5"/>
-      <c r="X163" s="7"/>
+      <c r="X163" s="5"/>
       <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
       <c r="AA163" s="6"/>
@@ -8734,15 +8656,15 @@
       </c>
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="7"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
       <c r="R165" s="7"/>
       <c r="S165" s="5"/>
       <c r="T165" s="5"/>
       <c r="U165" s="5"/>
       <c r="V165" s="5"/>
-      <c r="W165" s="7"/>
-      <c r="X165" s="7"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="5"/>
       <c r="Y165" s="6"/>
       <c r="Z165" s="6"/>
       <c r="AA165" s="6"/>
@@ -8775,15 +8697,15 @@
       </c>
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
-      <c r="P166" s="7"/>
-      <c r="Q166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="7"/>
       <c r="R166" s="7"/>
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
       <c r="V166" s="5"/>
-      <c r="W166" s="7"/>
-      <c r="X166" s="5"/>
+      <c r="W166" s="5"/>
+      <c r="X166" s="7"/>
       <c r="Y166" s="6"/>
       <c r="Z166" s="6"/>
       <c r="AA166" s="6"/>
@@ -8816,14 +8738,14 @@
       </c>
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
+      <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
-      <c r="R167" s="5"/>
+      <c r="R167" s="7"/>
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
       <c r="V167" s="5"/>
-      <c r="W167" s="5"/>
+      <c r="W167" s="7"/>
       <c r="X167" s="7"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="6"/>
@@ -8858,14 +8780,14 @@
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
       <c r="P168" s="7"/>
-      <c r="Q168" s="5"/>
+      <c r="Q168" s="7"/>
       <c r="R168" s="7"/>
-      <c r="S168" s="5"/>
+      <c r="S168" s="7"/>
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
       <c r="V168" s="5"/>
       <c r="W168" s="7"/>
-      <c r="X168" s="5"/>
+      <c r="X168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
       <c r="AA168" s="6"/>
@@ -8898,15 +8820,15 @@
       </c>
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
-      <c r="P169" s="5"/>
-      <c r="Q169" s="5"/>
-      <c r="R169" s="7"/>
+      <c r="P169" s="10"/>
+      <c r="Q169" s="10"/>
+      <c r="R169" s="10"/>
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
       <c r="V169" s="5"/>
-      <c r="W169" s="5"/>
-      <c r="X169" s="5"/>
+      <c r="W169" s="10"/>
+      <c r="X169" s="10"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
       <c r="AA169" s="6"/>
@@ -8938,15 +8860,15 @@
         <v>1</v>
       </c>
       <c r="N170" s="5"/>
-      <c r="O170" s="7"/>
-      <c r="P170" s="7"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
       <c r="Q170" s="7"/>
       <c r="R170" s="7"/>
-      <c r="S170" s="5"/>
+      <c r="S170" s="7"/>
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
-      <c r="V170" s="7"/>
-      <c r="W170" s="7"/>
+      <c r="V170" s="5"/>
+      <c r="W170" s="5"/>
       <c r="X170" s="7"/>
       <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
@@ -8980,14 +8902,14 @@
       </c>
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
-      <c r="P171" s="7"/>
+      <c r="P171" s="5"/>
       <c r="Q171" s="7"/>
-      <c r="R171" s="7"/>
+      <c r="R171" s="5"/>
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
       <c r="V171" s="5"/>
-      <c r="W171" s="7"/>
+      <c r="W171" s="5"/>
       <c r="X171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
@@ -9024,7 +8946,7 @@
       <c r="P172" s="7"/>
       <c r="Q172" s="7"/>
       <c r="R172" s="7"/>
-      <c r="S172" s="7"/>
+      <c r="S172" s="5"/>
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
       <c r="V172" s="5"/>
@@ -9060,17 +8982,17 @@
       <c r="M173" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N173" s="7"/>
-      <c r="O173" s="7"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
       <c r="P173" s="7"/>
-      <c r="Q173" s="7"/>
+      <c r="Q173" s="5"/>
       <c r="R173" s="7"/>
-      <c r="S173" s="7"/>
-      <c r="T173" s="7"/>
-      <c r="U173" s="7"/>
-      <c r="V173" s="7"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5"/>
+      <c r="V173" s="5"/>
       <c r="W173" s="7"/>
-      <c r="X173" s="7"/>
+      <c r="X173" s="5"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="6"/>
@@ -9101,17 +9023,17 @@
       <c r="M174" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N174" s="6"/>
-      <c r="O174" s="6"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="6"/>
-      <c r="R174" s="6"/>
-      <c r="S174" s="6"/>
-      <c r="T174" s="6"/>
-      <c r="U174" s="6"/>
-      <c r="V174" s="6"/>
-      <c r="W174" s="6"/>
-      <c r="X174" s="6"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="5"/>
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="5"/>
+      <c r="V174" s="5"/>
+      <c r="W174" s="5"/>
+      <c r="X174" s="7"/>
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
       <c r="AA174" s="6"/>
@@ -9142,17 +9064,17 @@
       <c r="M175" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N175" s="6"/>
-      <c r="O175" s="6"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="6"/>
-      <c r="R175" s="6"/>
-      <c r="S175" s="6"/>
-      <c r="T175" s="6"/>
-      <c r="U175" s="6"/>
-      <c r="V175" s="6"/>
-      <c r="W175" s="6"/>
-      <c r="X175" s="6"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="5"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="7"/>
+      <c r="S175" s="5"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="5"/>
+      <c r="V175" s="5"/>
+      <c r="W175" s="7"/>
+      <c r="X175" s="5"/>
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
       <c r="AA175" s="6"/>
@@ -9183,17 +9105,17 @@
       <c r="M176" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="6"/>
-      <c r="T176" s="6"/>
-      <c r="U176" s="6"/>
-      <c r="V176" s="6"/>
-      <c r="W176" s="6"/>
-      <c r="X176" s="6"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="7"/>
+      <c r="S176" s="5"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="5"/>
+      <c r="V176" s="5"/>
+      <c r="W176" s="5"/>
+      <c r="X176" s="5"/>
       <c r="Y176" s="6"/>
       <c r="Z176" s="6"/>
       <c r="AA176" s="6"/>
@@ -9224,17 +9146,17 @@
       <c r="M177" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N177" s="6"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-      <c r="R177" s="6"/>
-      <c r="S177" s="6"/>
-      <c r="T177" s="6"/>
-      <c r="U177" s="6"/>
-      <c r="V177" s="6"/>
-      <c r="W177" s="6"/>
-      <c r="X177" s="6"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="7"/>
+      <c r="R177" s="7"/>
+      <c r="S177" s="5"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="5"/>
+      <c r="V177" s="7"/>
+      <c r="W177" s="7"/>
+      <c r="X177" s="7"/>
       <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
       <c r="AA177" s="6"/>
@@ -9265,17 +9187,17 @@
       <c r="M178" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N178" s="6"/>
-      <c r="O178" s="6"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="6"/>
-      <c r="R178" s="6"/>
-      <c r="S178" s="6"/>
-      <c r="T178" s="6"/>
-      <c r="U178" s="6"/>
-      <c r="V178" s="6"/>
-      <c r="W178" s="6"/>
-      <c r="X178" s="6"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="5"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+      <c r="R178" s="7"/>
+      <c r="S178" s="5"/>
+      <c r="T178" s="5"/>
+      <c r="U178" s="5"/>
+      <c r="V178" s="5"/>
+      <c r="W178" s="7"/>
+      <c r="X178" s="7"/>
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
       <c r="AA178" s="6"/>
@@ -9306,17 +9228,17 @@
       <c r="M179" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N179" s="6"/>
-      <c r="O179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="6"/>
-      <c r="S179" s="6"/>
-      <c r="T179" s="6"/>
-      <c r="U179" s="6"/>
-      <c r="V179" s="6"/>
-      <c r="W179" s="6"/>
-      <c r="X179" s="6"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="7"/>
+      <c r="R179" s="7"/>
+      <c r="S179" s="7"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5"/>
+      <c r="V179" s="5"/>
+      <c r="W179" s="7"/>
+      <c r="X179" s="7"/>
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
       <c r="AA179" s="6"/>
@@ -9347,17 +9269,17 @@
       <c r="M180" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="6"/>
-      <c r="T180" s="6"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="6"/>
-      <c r="W180" s="6"/>
-      <c r="X180" s="6"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="7"/>
+      <c r="R180" s="7"/>
+      <c r="S180" s="7"/>
+      <c r="T180" s="7"/>
+      <c r="U180" s="7"/>
+      <c r="V180" s="7"/>
+      <c r="W180" s="7"/>
+      <c r="X180" s="7"/>
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
       <c r="AA180" s="6"/>
@@ -9429,24 +9351,24 @@
       <c r="M182" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N182" s="11"/>
-      <c r="O182" s="11"/>
-      <c r="P182" s="11"/>
-      <c r="Q182" s="11"/>
-      <c r="R182" s="11"/>
-      <c r="S182" s="11"/>
-      <c r="T182" s="11"/>
-      <c r="U182" s="11"/>
-      <c r="V182" s="11"/>
-      <c r="W182" s="11"/>
-      <c r="X182" s="11"/>
-      <c r="Y182" s="11"/>
-      <c r="Z182" s="11"/>
-      <c r="AA182" s="11"/>
-      <c r="AB182" s="11"/>
-      <c r="AC182" s="11"/>
-      <c r="AD182" s="11"/>
-      <c r="AE182" s="11"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="6"/>
+      <c r="T182" s="6"/>
+      <c r="U182" s="6"/>
+      <c r="V182" s="6"/>
+      <c r="W182" s="6"/>
+      <c r="X182" s="6"/>
+      <c r="Y182" s="6"/>
+      <c r="Z182" s="6"/>
+      <c r="AA182" s="6"/>
+      <c r="AB182" s="6"/>
+      <c r="AC182" s="6"/>
+      <c r="AD182" s="6"/>
+      <c r="AE182" s="6"/>
     </row>
     <row r="183" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A183" s="27" t="s">
@@ -9470,24 +9392,24 @@
       <c r="M183" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N183" s="11"/>
-      <c r="O183" s="11"/>
-      <c r="P183" s="11"/>
-      <c r="Q183" s="11"/>
-      <c r="R183" s="11"/>
-      <c r="S183" s="11"/>
-      <c r="T183" s="11"/>
-      <c r="U183" s="11"/>
-      <c r="V183" s="11"/>
-      <c r="W183" s="11"/>
-      <c r="X183" s="11"/>
-      <c r="Y183" s="11"/>
-      <c r="Z183" s="11"/>
-      <c r="AA183" s="11"/>
-      <c r="AB183" s="11"/>
-      <c r="AC183" s="11"/>
-      <c r="AD183" s="11"/>
-      <c r="AE183" s="11"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="6"/>
+      <c r="T183" s="6"/>
+      <c r="U183" s="6"/>
+      <c r="V183" s="6"/>
+      <c r="W183" s="6"/>
+      <c r="X183" s="6"/>
+      <c r="Y183" s="6"/>
+      <c r="Z183" s="6"/>
+      <c r="AA183" s="6"/>
+      <c r="AB183" s="6"/>
+      <c r="AC183" s="6"/>
+      <c r="AD183" s="6"/>
+      <c r="AE183" s="6"/>
     </row>
     <row r="184" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A184" s="27" t="s">
@@ -9511,24 +9433,24 @@
       <c r="M184" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N184" s="11"/>
-      <c r="O184" s="11"/>
-      <c r="P184" s="11"/>
-      <c r="Q184" s="11"/>
-      <c r="R184" s="11"/>
-      <c r="S184" s="11"/>
-      <c r="T184" s="11"/>
-      <c r="U184" s="11"/>
-      <c r="V184" s="11"/>
-      <c r="W184" s="11"/>
-      <c r="X184" s="11"/>
-      <c r="Y184" s="11"/>
-      <c r="Z184" s="11"/>
-      <c r="AA184" s="11"/>
-      <c r="AB184" s="11"/>
-      <c r="AC184" s="11"/>
-      <c r="AD184" s="11"/>
-      <c r="AE184" s="11"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+      <c r="T184" s="6"/>
+      <c r="U184" s="6"/>
+      <c r="V184" s="6"/>
+      <c r="W184" s="6"/>
+      <c r="X184" s="6"/>
+      <c r="Y184" s="6"/>
+      <c r="Z184" s="6"/>
+      <c r="AA184" s="6"/>
+      <c r="AB184" s="6"/>
+      <c r="AC184" s="6"/>
+      <c r="AD184" s="6"/>
+      <c r="AE184" s="6"/>
     </row>
     <row r="185" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A185" s="27" t="s">
@@ -9552,24 +9474,24 @@
       <c r="M185" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N185" s="11"/>
-      <c r="O185" s="11"/>
-      <c r="P185" s="11"/>
-      <c r="Q185" s="11"/>
-      <c r="R185" s="11"/>
-      <c r="S185" s="11"/>
-      <c r="T185" s="11"/>
-      <c r="U185" s="11"/>
-      <c r="V185" s="11"/>
-      <c r="W185" s="11"/>
-      <c r="X185" s="11"/>
-      <c r="Y185" s="11"/>
-      <c r="Z185" s="11"/>
-      <c r="AA185" s="11"/>
-      <c r="AB185" s="11"/>
-      <c r="AC185" s="11"/>
-      <c r="AD185" s="11"/>
-      <c r="AE185" s="11"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="6"/>
+      <c r="T185" s="6"/>
+      <c r="U185" s="6"/>
+      <c r="V185" s="6"/>
+      <c r="W185" s="6"/>
+      <c r="X185" s="6"/>
+      <c r="Y185" s="6"/>
+      <c r="Z185" s="6"/>
+      <c r="AA185" s="6"/>
+      <c r="AB185" s="6"/>
+      <c r="AC185" s="6"/>
+      <c r="AD185" s="6"/>
+      <c r="AE185" s="6"/>
     </row>
     <row r="186" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A186" s="27" t="s">
@@ -9593,24 +9515,24 @@
       <c r="M186" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N186" s="11"/>
-      <c r="O186" s="11"/>
-      <c r="P186" s="11"/>
-      <c r="Q186" s="11"/>
-      <c r="R186" s="11"/>
-      <c r="S186" s="11"/>
-      <c r="T186" s="11"/>
-      <c r="U186" s="11"/>
-      <c r="V186" s="11"/>
-      <c r="W186" s="11"/>
-      <c r="X186" s="11"/>
-      <c r="Y186" s="11"/>
-      <c r="Z186" s="11"/>
-      <c r="AA186" s="11"/>
-      <c r="AB186" s="11"/>
-      <c r="AC186" s="11"/>
-      <c r="AD186" s="11"/>
-      <c r="AE186" s="11"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6"/>
+      <c r="T186" s="6"/>
+      <c r="U186" s="6"/>
+      <c r="V186" s="6"/>
+      <c r="W186" s="6"/>
+      <c r="X186" s="6"/>
+      <c r="Y186" s="6"/>
+      <c r="Z186" s="6"/>
+      <c r="AA186" s="6"/>
+      <c r="AB186" s="6"/>
+      <c r="AC186" s="6"/>
+      <c r="AD186" s="6"/>
+      <c r="AE186" s="6"/>
     </row>
     <row r="187" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A187" s="27" t="s">
@@ -9634,24 +9556,24 @@
       <c r="M187" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N187" s="12"/>
-      <c r="O187" s="12"/>
-      <c r="P187" s="12"/>
-      <c r="Q187" s="12"/>
-      <c r="R187" s="12"/>
-      <c r="S187" s="12"/>
-      <c r="T187" s="12"/>
-      <c r="U187" s="12"/>
-      <c r="V187" s="12"/>
-      <c r="W187" s="12"/>
-      <c r="X187" s="12"/>
-      <c r="Y187" s="12"/>
-      <c r="Z187" s="12"/>
-      <c r="AA187" s="12"/>
-      <c r="AB187" s="12"/>
-      <c r="AC187" s="12"/>
-      <c r="AD187" s="12"/>
-      <c r="AE187" s="12"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="6"/>
+      <c r="T187" s="6"/>
+      <c r="U187" s="6"/>
+      <c r="V187" s="6"/>
+      <c r="W187" s="6"/>
+      <c r="X187" s="6"/>
+      <c r="Y187" s="6"/>
+      <c r="Z187" s="6"/>
+      <c r="AA187" s="6"/>
+      <c r="AB187" s="6"/>
+      <c r="AC187" s="6"/>
+      <c r="AD187" s="6"/>
+      <c r="AE187" s="6"/>
     </row>
     <row r="188" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A188" s="27" t="s">
@@ -9675,24 +9597,24 @@
       <c r="M188" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N188" s="12"/>
-      <c r="O188" s="12"/>
-      <c r="P188" s="12"/>
-      <c r="Q188" s="12"/>
-      <c r="R188" s="12"/>
-      <c r="S188" s="12"/>
-      <c r="T188" s="12"/>
-      <c r="U188" s="12"/>
-      <c r="V188" s="12"/>
-      <c r="W188" s="12"/>
-      <c r="X188" s="12"/>
-      <c r="Y188" s="12"/>
-      <c r="Z188" s="12"/>
-      <c r="AA188" s="12"/>
-      <c r="AB188" s="12"/>
-      <c r="AC188" s="12"/>
-      <c r="AD188" s="12"/>
-      <c r="AE188" s="12"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="6"/>
+      <c r="T188" s="6"/>
+      <c r="U188" s="6"/>
+      <c r="V188" s="6"/>
+      <c r="W188" s="6"/>
+      <c r="X188" s="6"/>
+      <c r="Y188" s="6"/>
+      <c r="Z188" s="6"/>
+      <c r="AA188" s="6"/>
+      <c r="AB188" s="6"/>
+      <c r="AC188" s="6"/>
+      <c r="AD188" s="6"/>
+      <c r="AE188" s="6"/>
     </row>
     <row r="189" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="27" t="s">
@@ -9716,24 +9638,24 @@
       <c r="M189" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N189" s="12"/>
-      <c r="O189" s="12"/>
-      <c r="P189" s="12"/>
-      <c r="Q189" s="12"/>
-      <c r="R189" s="12"/>
-      <c r="S189" s="12"/>
-      <c r="T189" s="12"/>
-      <c r="U189" s="12"/>
-      <c r="V189" s="12"/>
-      <c r="W189" s="12"/>
-      <c r="X189" s="12"/>
-      <c r="Y189" s="12"/>
-      <c r="Z189" s="12"/>
-      <c r="AA189" s="12"/>
-      <c r="AB189" s="12"/>
-      <c r="AC189" s="12"/>
-      <c r="AD189" s="12"/>
-      <c r="AE189" s="12"/>
+      <c r="N189" s="11"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
+      <c r="Q189" s="11"/>
+      <c r="R189" s="11"/>
+      <c r="S189" s="11"/>
+      <c r="T189" s="11"/>
+      <c r="U189" s="11"/>
+      <c r="V189" s="11"/>
+      <c r="W189" s="11"/>
+      <c r="X189" s="11"/>
+      <c r="Y189" s="11"/>
+      <c r="Z189" s="11"/>
+      <c r="AA189" s="11"/>
+      <c r="AB189" s="11"/>
+      <c r="AC189" s="11"/>
+      <c r="AD189" s="11"/>
+      <c r="AE189" s="11"/>
     </row>
     <row r="190" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A190" s="27" t="s">
@@ -9757,24 +9679,24 @@
       <c r="M190" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N190" s="12"/>
-      <c r="O190" s="12"/>
-      <c r="P190" s="12"/>
-      <c r="Q190" s="12"/>
-      <c r="R190" s="12"/>
-      <c r="S190" s="12"/>
-      <c r="T190" s="12"/>
-      <c r="U190" s="12"/>
-      <c r="V190" s="12"/>
-      <c r="W190" s="12"/>
-      <c r="X190" s="12"/>
-      <c r="Y190" s="12"/>
-      <c r="Z190" s="12"/>
-      <c r="AA190" s="12"/>
-      <c r="AB190" s="12"/>
-      <c r="AC190" s="12"/>
-      <c r="AD190" s="12"/>
-      <c r="AE190" s="12"/>
+      <c r="N190" s="11"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
+      <c r="Q190" s="11"/>
+      <c r="R190" s="11"/>
+      <c r="S190" s="11"/>
+      <c r="T190" s="11"/>
+      <c r="U190" s="11"/>
+      <c r="V190" s="11"/>
+      <c r="W190" s="11"/>
+      <c r="X190" s="11"/>
+      <c r="Y190" s="11"/>
+      <c r="Z190" s="11"/>
+      <c r="AA190" s="11"/>
+      <c r="AB190" s="11"/>
+      <c r="AC190" s="11"/>
+      <c r="AD190" s="11"/>
+      <c r="AE190" s="11"/>
     </row>
     <row r="191" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A191" s="27" t="s">
@@ -9798,24 +9720,24 @@
       <c r="M191" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N191" s="12"/>
-      <c r="O191" s="12"/>
-      <c r="P191" s="12"/>
-      <c r="Q191" s="12"/>
-      <c r="R191" s="12"/>
-      <c r="S191" s="12"/>
-      <c r="T191" s="12"/>
-      <c r="U191" s="12"/>
-      <c r="V191" s="12"/>
-      <c r="W191" s="12"/>
-      <c r="X191" s="12"/>
-      <c r="Y191" s="12"/>
-      <c r="Z191" s="12"/>
-      <c r="AA191" s="12"/>
-      <c r="AB191" s="12"/>
-      <c r="AC191" s="12"/>
-      <c r="AD191" s="12"/>
-      <c r="AE191" s="12"/>
+      <c r="N191" s="11"/>
+      <c r="O191" s="11"/>
+      <c r="P191" s="11"/>
+      <c r="Q191" s="11"/>
+      <c r="R191" s="11"/>
+      <c r="S191" s="11"/>
+      <c r="T191" s="11"/>
+      <c r="U191" s="11"/>
+      <c r="V191" s="11"/>
+      <c r="W191" s="11"/>
+      <c r="X191" s="11"/>
+      <c r="Y191" s="11"/>
+      <c r="Z191" s="11"/>
+      <c r="AA191" s="11"/>
+      <c r="AB191" s="11"/>
+      <c r="AC191" s="11"/>
+      <c r="AD191" s="11"/>
+      <c r="AE191" s="11"/>
     </row>
     <row r="192" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="27" t="s">
@@ -9839,24 +9761,24 @@
       <c r="M192" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N192" s="12"/>
-      <c r="O192" s="12"/>
-      <c r="P192" s="12"/>
-      <c r="Q192" s="12"/>
-      <c r="R192" s="12"/>
-      <c r="S192" s="12"/>
-      <c r="T192" s="12"/>
-      <c r="U192" s="12"/>
-      <c r="V192" s="12"/>
-      <c r="W192" s="12"/>
-      <c r="X192" s="12"/>
-      <c r="Y192" s="12"/>
-      <c r="Z192" s="12"/>
-      <c r="AA192" s="12"/>
-      <c r="AB192" s="12"/>
-      <c r="AC192" s="12"/>
-      <c r="AD192" s="12"/>
-      <c r="AE192" s="12"/>
+      <c r="N192" s="11"/>
+      <c r="O192" s="11"/>
+      <c r="P192" s="11"/>
+      <c r="Q192" s="11"/>
+      <c r="R192" s="11"/>
+      <c r="S192" s="11"/>
+      <c r="T192" s="11"/>
+      <c r="U192" s="11"/>
+      <c r="V192" s="11"/>
+      <c r="W192" s="11"/>
+      <c r="X192" s="11"/>
+      <c r="Y192" s="11"/>
+      <c r="Z192" s="11"/>
+      <c r="AA192" s="11"/>
+      <c r="AB192" s="11"/>
+      <c r="AC192" s="11"/>
+      <c r="AD192" s="11"/>
+      <c r="AE192" s="11"/>
     </row>
     <row r="193" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A193" s="27" t="s">
@@ -9880,24 +9802,24 @@
       <c r="M193" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N193" s="12"/>
-      <c r="O193" s="12"/>
-      <c r="P193" s="12"/>
-      <c r="Q193" s="12"/>
-      <c r="R193" s="12"/>
-      <c r="S193" s="12"/>
-      <c r="T193" s="12"/>
-      <c r="U193" s="12"/>
-      <c r="V193" s="12"/>
-      <c r="W193" s="12"/>
-      <c r="X193" s="12"/>
-      <c r="Y193" s="12"/>
-      <c r="Z193" s="12"/>
-      <c r="AA193" s="12"/>
-      <c r="AB193" s="12"/>
-      <c r="AC193" s="12"/>
-      <c r="AD193" s="12"/>
-      <c r="AE193" s="12"/>
+      <c r="N193" s="11"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="11"/>
+      <c r="Q193" s="11"/>
+      <c r="R193" s="11"/>
+      <c r="S193" s="11"/>
+      <c r="T193" s="11"/>
+      <c r="U193" s="11"/>
+      <c r="V193" s="11"/>
+      <c r="W193" s="11"/>
+      <c r="X193" s="11"/>
+      <c r="Y193" s="11"/>
+      <c r="Z193" s="11"/>
+      <c r="AA193" s="11"/>
+      <c r="AB193" s="11"/>
+      <c r="AC193" s="11"/>
+      <c r="AD193" s="11"/>
+      <c r="AE193" s="11"/>
     </row>
     <row r="194" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A194" s="27" t="s">
@@ -16932,6 +16854,24 @@
       <c r="M365" s="34" t="s">
         <v>1</v>
       </c>
+      <c r="N365" s="12"/>
+      <c r="O365" s="12"/>
+      <c r="P365" s="12"/>
+      <c r="Q365" s="12"/>
+      <c r="R365" s="12"/>
+      <c r="S365" s="12"/>
+      <c r="T365" s="12"/>
+      <c r="U365" s="12"/>
+      <c r="V365" s="12"/>
+      <c r="W365" s="12"/>
+      <c r="X365" s="12"/>
+      <c r="Y365" s="12"/>
+      <c r="Z365" s="12"/>
+      <c r="AA365" s="12"/>
+      <c r="AB365" s="12"/>
+      <c r="AC365" s="12"/>
+      <c r="AD365" s="12"/>
+      <c r="AE365" s="12"/>
     </row>
     <row r="366" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A366" s="27" t="s">
@@ -16955,6 +16895,24 @@
       <c r="M366" s="34" t="s">
         <v>1</v>
       </c>
+      <c r="N366" s="12"/>
+      <c r="O366" s="12"/>
+      <c r="P366" s="12"/>
+      <c r="Q366" s="12"/>
+      <c r="R366" s="12"/>
+      <c r="S366" s="12"/>
+      <c r="T366" s="12"/>
+      <c r="U366" s="12"/>
+      <c r="V366" s="12"/>
+      <c r="W366" s="12"/>
+      <c r="X366" s="12"/>
+      <c r="Y366" s="12"/>
+      <c r="Z366" s="12"/>
+      <c r="AA366" s="12"/>
+      <c r="AB366" s="12"/>
+      <c r="AC366" s="12"/>
+      <c r="AD366" s="12"/>
+      <c r="AE366" s="12"/>
     </row>
     <row r="367" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A367" s="27" t="s">
@@ -16978,6 +16936,24 @@
       <c r="M367" s="34" t="s">
         <v>1</v>
       </c>
+      <c r="N367" s="12"/>
+      <c r="O367" s="12"/>
+      <c r="P367" s="12"/>
+      <c r="Q367" s="12"/>
+      <c r="R367" s="12"/>
+      <c r="S367" s="12"/>
+      <c r="T367" s="12"/>
+      <c r="U367" s="12"/>
+      <c r="V367" s="12"/>
+      <c r="W367" s="12"/>
+      <c r="X367" s="12"/>
+      <c r="Y367" s="12"/>
+      <c r="Z367" s="12"/>
+      <c r="AA367" s="12"/>
+      <c r="AB367" s="12"/>
+      <c r="AC367" s="12"/>
+      <c r="AD367" s="12"/>
+      <c r="AE367" s="12"/>
     </row>
     <row r="368" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A368" s="27" t="s">
@@ -17001,8 +16977,26 @@
       <c r="M368" s="34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N368" s="12"/>
+      <c r="O368" s="12"/>
+      <c r="P368" s="12"/>
+      <c r="Q368" s="12"/>
+      <c r="R368" s="12"/>
+      <c r="S368" s="12"/>
+      <c r="T368" s="12"/>
+      <c r="U368" s="12"/>
+      <c r="V368" s="12"/>
+      <c r="W368" s="12"/>
+      <c r="X368" s="12"/>
+      <c r="Y368" s="12"/>
+      <c r="Z368" s="12"/>
+      <c r="AA368" s="12"/>
+      <c r="AB368" s="12"/>
+      <c r="AC368" s="12"/>
+      <c r="AD368" s="12"/>
+      <c r="AE368" s="12"/>
+    </row>
+    <row r="369" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A369" s="27" t="s">
         <v>15</v>
       </c>
@@ -17024,8 +17018,26 @@
       <c r="M369" s="34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N369" s="12"/>
+      <c r="O369" s="12"/>
+      <c r="P369" s="12"/>
+      <c r="Q369" s="12"/>
+      <c r="R369" s="12"/>
+      <c r="S369" s="12"/>
+      <c r="T369" s="12"/>
+      <c r="U369" s="12"/>
+      <c r="V369" s="12"/>
+      <c r="W369" s="12"/>
+      <c r="X369" s="12"/>
+      <c r="Y369" s="12"/>
+      <c r="Z369" s="12"/>
+      <c r="AA369" s="12"/>
+      <c r="AB369" s="12"/>
+      <c r="AC369" s="12"/>
+      <c r="AD369" s="12"/>
+      <c r="AE369" s="12"/>
+    </row>
+    <row r="370" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A370" s="27" t="s">
         <v>15</v>
       </c>
@@ -17047,8 +17059,26 @@
       <c r="M370" s="34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N370" s="12"/>
+      <c r="O370" s="12"/>
+      <c r="P370" s="12"/>
+      <c r="Q370" s="12"/>
+      <c r="R370" s="12"/>
+      <c r="S370" s="12"/>
+      <c r="T370" s="12"/>
+      <c r="U370" s="12"/>
+      <c r="V370" s="12"/>
+      <c r="W370" s="12"/>
+      <c r="X370" s="12"/>
+      <c r="Y370" s="12"/>
+      <c r="Z370" s="12"/>
+      <c r="AA370" s="12"/>
+      <c r="AB370" s="12"/>
+      <c r="AC370" s="12"/>
+      <c r="AD370" s="12"/>
+      <c r="AE370" s="12"/>
+    </row>
+    <row r="371" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A371" s="27" t="s">
         <v>15</v>
       </c>
@@ -17070,8 +17100,26 @@
       <c r="M371" s="34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N371" s="12"/>
+      <c r="O371" s="12"/>
+      <c r="P371" s="12"/>
+      <c r="Q371" s="12"/>
+      <c r="R371" s="12"/>
+      <c r="S371" s="12"/>
+      <c r="T371" s="12"/>
+      <c r="U371" s="12"/>
+      <c r="V371" s="12"/>
+      <c r="W371" s="12"/>
+      <c r="X371" s="12"/>
+      <c r="Y371" s="12"/>
+      <c r="Z371" s="12"/>
+      <c r="AA371" s="12"/>
+      <c r="AB371" s="12"/>
+      <c r="AC371" s="12"/>
+      <c r="AD371" s="12"/>
+      <c r="AE371" s="12"/>
+    </row>
+    <row r="372" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A372" s="27" t="s">
         <v>15</v>
       </c>
@@ -17094,7 +17142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="373" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A373" s="27" t="s">
         <v>15</v>
       </c>
@@ -17117,7 +17165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="374" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A374" s="27" t="s">
         <v>15</v>
       </c>
@@ -17140,7 +17188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="375" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A375" s="27" t="s">
         <v>15</v>
       </c>
@@ -17163,7 +17211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="376" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A376" s="27" t="s">
         <v>15</v>
       </c>
@@ -17186,7 +17234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="377" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A377" s="27" t="s">
         <v>15</v>
       </c>
@@ -17209,7 +17257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="378" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A378" s="27" t="s">
         <v>15</v>
       </c>
@@ -17232,7 +17280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="379" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A379" s="27" t="s">
         <v>15</v>
       </c>
@@ -17255,7 +17303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="380" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A380" s="27" t="s">
         <v>15</v>
       </c>
@@ -17278,7 +17326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="381" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A381" s="27" t="s">
         <v>15</v>
       </c>
@@ -17301,7 +17349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="382" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A382" s="27" t="s">
         <v>15</v>
       </c>
@@ -17324,7 +17372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="383" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A383" s="27" t="s">
         <v>15</v>
       </c>
@@ -17347,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="384" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A384" s="27" t="s">
         <v>15</v>
       </c>
@@ -23903,62 +23951,167 @@
       </c>
     </row>
     <row r="669" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B669" s="12"/>
-      <c r="C669" s="18"/>
-      <c r="D669" s="18"/>
-      <c r="E669" s="18"/>
-      <c r="F669" s="18"/>
-      <c r="G669" s="18"/>
+      <c r="A669" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B669" s="28"/>
+      <c r="C669" s="21"/>
+      <c r="D669" s="28"/>
+      <c r="E669" s="26"/>
+      <c r="F669" s="24"/>
+      <c r="G669" s="24"/>
+      <c r="H669" s="25"/>
+      <c r="I669" s="24"/>
+      <c r="J669" s="25"/>
+      <c r="K669" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L669" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M669" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="670" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B670" s="12"/>
-      <c r="C670" s="18"/>
-      <c r="D670" s="18"/>
-      <c r="E670" s="18"/>
-      <c r="F670" s="18"/>
-      <c r="G670" s="18"/>
+      <c r="A670" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B670" s="28"/>
+      <c r="C670" s="21"/>
+      <c r="D670" s="28"/>
+      <c r="E670" s="26"/>
+      <c r="F670" s="24"/>
+      <c r="G670" s="24"/>
+      <c r="H670" s="25"/>
+      <c r="I670" s="24"/>
+      <c r="J670" s="25"/>
+      <c r="K670" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L670" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M670" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="671" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B671" s="12"/>
-      <c r="C671" s="18"/>
-      <c r="D671" s="18"/>
-      <c r="E671" s="18"/>
-      <c r="F671" s="18"/>
-      <c r="G671" s="18"/>
+      <c r="A671" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B671" s="28"/>
+      <c r="C671" s="21"/>
+      <c r="D671" s="28"/>
+      <c r="E671" s="26"/>
+      <c r="F671" s="24"/>
+      <c r="G671" s="24"/>
+      <c r="H671" s="25"/>
+      <c r="I671" s="24"/>
+      <c r="J671" s="25"/>
+      <c r="K671" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L671" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M671" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="672" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B672" s="12"/>
-      <c r="C672" s="18"/>
-      <c r="D672" s="18"/>
-      <c r="E672" s="18"/>
-      <c r="F672" s="18"/>
-      <c r="G672" s="18"/>
-    </row>
-    <row r="673" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B673" s="12"/>
-      <c r="C673" s="18"/>
-      <c r="D673" s="18"/>
-      <c r="E673" s="18"/>
-      <c r="F673" s="18"/>
-      <c r="G673" s="18"/>
-    </row>
-    <row r="674" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B674" s="12"/>
-      <c r="C674" s="18"/>
-      <c r="D674" s="18"/>
-      <c r="E674" s="18"/>
-      <c r="F674" s="18"/>
-      <c r="G674" s="18"/>
-    </row>
-    <row r="675" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B675" s="12"/>
-      <c r="C675" s="18"/>
-      <c r="D675" s="18"/>
-      <c r="E675" s="18"/>
-      <c r="F675" s="18"/>
-      <c r="G675" s="18"/>
-    </row>
-    <row r="676" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="A672" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B672" s="28"/>
+      <c r="C672" s="21"/>
+      <c r="D672" s="28"/>
+      <c r="E672" s="26"/>
+      <c r="F672" s="24"/>
+      <c r="G672" s="24"/>
+      <c r="H672" s="25"/>
+      <c r="I672" s="24"/>
+      <c r="J672" s="25"/>
+      <c r="K672" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L672" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M672" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A673" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B673" s="28"/>
+      <c r="C673" s="21"/>
+      <c r="D673" s="28"/>
+      <c r="E673" s="26"/>
+      <c r="F673" s="24"/>
+      <c r="G673" s="24"/>
+      <c r="H673" s="25"/>
+      <c r="I673" s="24"/>
+      <c r="J673" s="25"/>
+      <c r="K673" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L673" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M673" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A674" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B674" s="28"/>
+      <c r="C674" s="21"/>
+      <c r="D674" s="28"/>
+      <c r="E674" s="26"/>
+      <c r="F674" s="24"/>
+      <c r="G674" s="24"/>
+      <c r="H674" s="25"/>
+      <c r="I674" s="24"/>
+      <c r="J674" s="25"/>
+      <c r="K674" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L674" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M674" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A675" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B675" s="28"/>
+      <c r="C675" s="21"/>
+      <c r="D675" s="28"/>
+      <c r="E675" s="26"/>
+      <c r="F675" s="24"/>
+      <c r="G675" s="24"/>
+      <c r="H675" s="25"/>
+      <c r="I675" s="24"/>
+      <c r="J675" s="25"/>
+      <c r="K675" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L675" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M675" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B676" s="12"/>
       <c r="C676" s="18"/>
       <c r="D676" s="18"/>
@@ -23966,7 +24119,7 @@
       <c r="F676" s="18"/>
       <c r="G676" s="18"/>
     </row>
-    <row r="677" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="677" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B677" s="12"/>
       <c r="C677" s="18"/>
       <c r="D677" s="18"/>
@@ -23974,7 +24127,7 @@
       <c r="F677" s="18"/>
       <c r="G677" s="18"/>
     </row>
-    <row r="678" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="678" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B678" s="12"/>
       <c r="C678" s="18"/>
       <c r="D678" s="18"/>
@@ -23982,7 +24135,7 @@
       <c r="F678" s="18"/>
       <c r="G678" s="18"/>
     </row>
-    <row r="679" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="679" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B679" s="12"/>
       <c r="C679" s="18"/>
       <c r="D679" s="18"/>
@@ -23990,7 +24143,7 @@
       <c r="F679" s="18"/>
       <c r="G679" s="18"/>
     </row>
-    <row r="680" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="680" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B680" s="12"/>
       <c r="C680" s="18"/>
       <c r="D680" s="18"/>
@@ -23998,7 +24151,7 @@
       <c r="F680" s="18"/>
       <c r="G680" s="18"/>
     </row>
-    <row r="681" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="681" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B681" s="12"/>
       <c r="C681" s="18"/>
       <c r="D681" s="18"/>
@@ -24006,7 +24159,7 @@
       <c r="F681" s="18"/>
       <c r="G681" s="18"/>
     </row>
-    <row r="682" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="682" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B682" s="12"/>
       <c r="C682" s="18"/>
       <c r="D682" s="18"/>
@@ -24014,7 +24167,7 @@
       <c r="F682" s="18"/>
       <c r="G682" s="18"/>
     </row>
-    <row r="683" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="683" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B683" s="12"/>
       <c r="C683" s="18"/>
       <c r="D683" s="18"/>
@@ -24022,7 +24175,7 @@
       <c r="F683" s="18"/>
       <c r="G683" s="18"/>
     </row>
-    <row r="684" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="684" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B684" s="12"/>
       <c r="C684" s="18"/>
       <c r="D684" s="18"/>
@@ -24030,7 +24183,7 @@
       <c r="F684" s="18"/>
       <c r="G684" s="18"/>
     </row>
-    <row r="685" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="685" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B685" s="12"/>
       <c r="C685" s="18"/>
       <c r="D685" s="18"/>
@@ -24038,7 +24191,7 @@
       <c r="F685" s="18"/>
       <c r="G685" s="18"/>
     </row>
-    <row r="686" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="686" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B686" s="12"/>
       <c r="C686" s="18"/>
       <c r="D686" s="18"/>
@@ -24046,7 +24199,7 @@
       <c r="F686" s="18"/>
       <c r="G686" s="18"/>
     </row>
-    <row r="687" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="687" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B687" s="12"/>
       <c r="C687" s="18"/>
       <c r="D687" s="18"/>
@@ -24054,7 +24207,7 @@
       <c r="F687" s="18"/>
       <c r="G687" s="18"/>
     </row>
-    <row r="688" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="688" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B688" s="12"/>
       <c r="C688" s="18"/>
       <c r="D688" s="18"/>
@@ -25070,6 +25223,62 @@
       <c r="F814" s="18"/>
       <c r="G814" s="18"/>
     </row>
+    <row r="815" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B815" s="12"/>
+      <c r="C815" s="18"/>
+      <c r="D815" s="18"/>
+      <c r="E815" s="18"/>
+      <c r="F815" s="18"/>
+      <c r="G815" s="18"/>
+    </row>
+    <row r="816" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B816" s="12"/>
+      <c r="C816" s="18"/>
+      <c r="D816" s="18"/>
+      <c r="E816" s="18"/>
+      <c r="F816" s="18"/>
+      <c r="G816" s="18"/>
+    </row>
+    <row r="817" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B817" s="12"/>
+      <c r="C817" s="18"/>
+      <c r="D817" s="18"/>
+      <c r="E817" s="18"/>
+      <c r="F817" s="18"/>
+      <c r="G817" s="18"/>
+    </row>
+    <row r="818" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B818" s="12"/>
+      <c r="C818" s="18"/>
+      <c r="D818" s="18"/>
+      <c r="E818" s="18"/>
+      <c r="F818" s="18"/>
+      <c r="G818" s="18"/>
+    </row>
+    <row r="819" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B819" s="12"/>
+      <c r="C819" s="18"/>
+      <c r="D819" s="18"/>
+      <c r="E819" s="18"/>
+      <c r="F819" s="18"/>
+      <c r="G819" s="18"/>
+    </row>
+    <row r="820" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B820" s="12"/>
+      <c r="C820" s="18"/>
+      <c r="D820" s="18"/>
+      <c r="E820" s="18"/>
+      <c r="F820" s="18"/>
+      <c r="G820" s="18"/>
+    </row>
+    <row r="821" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B821" s="12"/>
+      <c r="C821" s="18"/>
+      <c r="D821" s="18"/>
+      <c r="E821" s="18"/>
+      <c r="F821" s="18"/>
+      <c r="G821" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/cadenderecoSANTOS.xlsx
+++ b/core/utils/cadenderecoSANTOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB9AD3A-532F-4DA8-B080-168F3737A822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D01043-D580-4503-82DF-B0835F271756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="282">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -601,6 +601,276 @@
   </si>
   <si>
     <t>UME - SAMUEL AUGUSTO LEAO MOURA DR</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>UME - ANIZIO BENTO</t>
+  </si>
+  <si>
+    <t>1432</t>
+  </si>
+  <si>
+    <t>UME - ANTONIO DE OLIVEIRA PASSOS SOBRINHO PROF</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>UME - CIDADE DE SANTOS</t>
+  </si>
+  <si>
+    <t>1434</t>
+  </si>
+  <si>
+    <t>UME - DOS ANDRADAS</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>UME - FRANCISCO LEITE PADRE</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>UME - JOAO PAPA SOBRINHO PROF</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>UME - JOSE CARLOS AZEVEDO JUNIOR DR</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>UME - JOSE DE SA PORTO PROF</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>UME - LEONARDO NUNES PADRE</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>UME - LOURDES ORTIZ</t>
+  </si>
+  <si>
+    <t>1442</t>
+  </si>
+  <si>
+    <t>UME - MARGARETH BUCHMANN PROFA</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>UME - MARIA LUCIA PRANDI</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>UME - PEDRO CRESCENTI PROF</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>UME -- GOTA DE LEITE</t>
+  </si>
+  <si>
+    <t>Areia Branca</t>
+  </si>
+  <si>
+    <t>11086-400</t>
+  </si>
+  <si>
+    <t>3299-4255</t>
+  </si>
+  <si>
+    <t>AREIA BRANCA</t>
+  </si>
+  <si>
+    <t>S/Nº</t>
+  </si>
+  <si>
+    <t>Av. Eng. Manoel Ferramenta Jr</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>11015-201</t>
+  </si>
+  <si>
+    <t>3234-8567</t>
+  </si>
+  <si>
+    <t>MACUCO</t>
+  </si>
+  <si>
+    <t>Av. Cons. Rodrigues Alves</t>
+  </si>
+  <si>
+    <t>Embaré</t>
+  </si>
+  <si>
+    <t>11015-210</t>
+  </si>
+  <si>
+    <t>3231-1212</t>
+  </si>
+  <si>
+    <t>Av. Senador Dantas</t>
+  </si>
+  <si>
+    <t>Aparecida</t>
+  </si>
+  <si>
+    <t>11035-300</t>
+  </si>
+  <si>
+    <t>3271-6707</t>
+  </si>
+  <si>
+    <t>Rua Alm. Ernesto de Mello Jr.</t>
+  </si>
+  <si>
+    <t>Marapé</t>
+  </si>
+  <si>
+    <t>11070-060</t>
+  </si>
+  <si>
+    <t>3252-6393</t>
+  </si>
+  <si>
+    <t>Av. Dr. Moura Ribeiro</t>
+  </si>
+  <si>
+    <t>Encruzilhada</t>
+  </si>
+  <si>
+    <t>11015-010</t>
+  </si>
+  <si>
+    <t>3235-1695</t>
+  </si>
+  <si>
+    <t>Rua Xavier Pinheiro</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>11050-101</t>
+  </si>
+  <si>
+    <t>3222-2201</t>
+  </si>
+  <si>
+    <t>Rua Goiás</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>UME - PREFEITO PAULO GOMES BARBOSA</t>
+  </si>
+  <si>
+    <t>Jabaquara</t>
+  </si>
+  <si>
+    <t>11013-601</t>
+  </si>
+  <si>
+    <t>3228-3728</t>
+  </si>
+  <si>
+    <t>Av. Waldemar Leão</t>
+  </si>
+  <si>
+    <t>São Manoel</t>
+  </si>
+  <si>
+    <t>11095-070</t>
+  </si>
+  <si>
+    <t>3203-2447</t>
+  </si>
+  <si>
+    <t>Rua Nicolau Geraigire</t>
+  </si>
+  <si>
+    <t>11086-100</t>
+  </si>
+  <si>
+    <t>3299-4004</t>
+  </si>
+  <si>
+    <t>Rua Tomoichi Kobuchi</t>
+  </si>
+  <si>
+    <t>11087-000</t>
+  </si>
+  <si>
+    <t>3299-1143</t>
+  </si>
+  <si>
+    <t>Av. Afonso Schmidt</t>
+  </si>
+  <si>
+    <t>11035-171</t>
+  </si>
+  <si>
+    <t>3236-9989</t>
+  </si>
+  <si>
+    <t>Rua Ricardo Pinto</t>
+  </si>
+  <si>
+    <t>11025-002</t>
+  </si>
+  <si>
+    <t>3216-1395</t>
+  </si>
+  <si>
+    <t>embaré</t>
+  </si>
+  <si>
+    <t>rua doutor pedro lessa</t>
+  </si>
+  <si>
+    <t>11085-203</t>
+  </si>
+  <si>
+    <t>3219-8765</t>
+  </si>
+  <si>
+    <t>são jorge</t>
+  </si>
+  <si>
+    <t>avenida nossa senhora de fátima</t>
+  </si>
+  <si>
+    <t>11088-300</t>
+  </si>
+  <si>
+    <t>3203-5790</t>
+  </si>
+  <si>
+    <t>rádio clube</t>
+  </si>
+  <si>
+    <t>avenida brigadeiro faria lima</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1613,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3287,15 +3557,33 @@
       <c r="A42" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="24"/>
+      <c r="B42" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="21">
+        <v>41</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>221</v>
+      </c>
       <c r="K42" s="32" t="s">
         <v>15</v>
       </c>
@@ -3328,15 +3616,33 @@
       <c r="A43" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="24"/>
+      <c r="B43" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="21">
+        <v>42</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="24">
+        <v>197</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>227</v>
+      </c>
       <c r="K43" s="32" t="s">
         <v>15</v>
       </c>
@@ -3698,15 +4004,33 @@
       <c r="A51" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
+      <c r="B51" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="21">
+        <v>50</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51" s="24">
+        <v>410</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>232</v>
+      </c>
       <c r="K51" s="32" t="s">
         <v>15</v>
       </c>
@@ -4068,15 +4392,33 @@
       <c r="A59" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="24"/>
+      <c r="B59" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="21">
+        <v>58</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G59" s="24">
+        <v>130</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>236</v>
+      </c>
       <c r="K59" s="32" t="s">
         <v>15</v>
       </c>
@@ -4532,15 +4874,33 @@
       <c r="A69" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="24"/>
+      <c r="B69" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="21">
+        <v>68</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G69" s="24">
+        <v>170</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>240</v>
+      </c>
       <c r="K69" s="32" t="s">
         <v>15</v>
       </c>
@@ -4620,15 +4980,33 @@
       <c r="A71" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="24"/>
+      <c r="B71" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="21">
+        <v>70</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G71" s="35">
+        <v>217</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I71" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="J71" s="35" t="s">
+        <v>244</v>
+      </c>
       <c r="K71" s="32" t="s">
         <v>15</v>
       </c>
@@ -4896,15 +5274,33 @@
       <c r="A77" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="24"/>
+      <c r="B77" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="21">
+        <v>76</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" s="24">
+        <v>145</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I77" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J77" s="24" t="s">
+        <v>248</v>
+      </c>
       <c r="K77" s="32" t="s">
         <v>15</v>
       </c>
@@ -5031,15 +5427,33 @@
       <c r="A80" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="28"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="24"/>
+      <c r="B80" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="21">
+        <v>79</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I80" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>258</v>
+      </c>
       <c r="K80" s="32" t="s">
         <v>15</v>
       </c>
@@ -5166,15 +5580,33 @@
       <c r="A83" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="24"/>
+      <c r="B83" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="21">
+        <v>82</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="G83" s="24">
+        <v>10</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I83" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="K83" s="32" t="s">
         <v>15</v>
       </c>
@@ -5301,15 +5733,33 @@
       <c r="A86" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="24"/>
+      <c r="B86" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="21">
+        <v>85</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="G86" s="24">
+        <v>610</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I86" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>264</v>
+      </c>
       <c r="K86" s="32" t="s">
         <v>15</v>
       </c>
@@ -5389,15 +5839,33 @@
       <c r="A88" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="24"/>
+      <c r="B88" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="21">
+        <v>87</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G88" s="24">
+        <v>129</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I88" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>267</v>
+      </c>
       <c r="K88" s="32" t="s">
         <v>15</v>
       </c>
@@ -5712,15 +6180,33 @@
       <c r="A95" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
+      <c r="B95" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="21">
+        <v>94</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F95" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G95" s="24">
+        <v>2880</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>270</v>
+      </c>
       <c r="K95" s="32" t="s">
         <v>15</v>
       </c>
@@ -5876,15 +6362,33 @@
       <c r="A99" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
+      <c r="B99" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="21">
+        <v>98</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="F99" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G99" s="24">
+        <v>915</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I99" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>274</v>
+      </c>
       <c r="K99" s="32" t="s">
         <v>15</v>
       </c>
@@ -6433,15 +6937,33 @@
       <c r="A112" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="28"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
+      <c r="B112" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="21">
+        <v>111</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F112" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I112" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="J112" s="24" t="s">
+        <v>278</v>
+      </c>
       <c r="K112" s="32" t="s">
         <v>15</v>
       </c>
@@ -6562,15 +7084,33 @@
       <c r="A115" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
+      <c r="B115" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="21">
+        <v>114</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G115" s="24">
+        <v>184</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I115" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J115" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="K115" s="32" t="s">
         <v>15</v>
       </c>

--- a/core/utils/cadenderecoSANTOS.xlsx
+++ b/core/utils/cadenderecoSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ACFADE-7915-4500-B109-C10330D3DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C17EDC4-866C-44A9-B918-D1A7C807C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -1536,9 +1536,9 @@
   <dimension ref="A1:AE377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127:J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7363,21 +7363,21 @@
       <c r="A127" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B127" s="28" t="s">
+      <c r="B127" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="21">
+      <c r="C127" s="36">
         <v>126</v>
       </c>
-      <c r="D127" s="28" t="s">
+      <c r="D127" s="35" t="s">
         <v>223</v>
       </c>
       <c r="E127" s="26"/>
-      <c r="F127" s="29"/>
+      <c r="F127" s="26"/>
       <c r="G127" s="24"/>
       <c r="H127" s="25"/>
       <c r="I127" s="29"/>
-      <c r="J127" s="25"/>
+      <c r="J127" s="24"/>
       <c r="K127" s="31" t="s">
         <v>15</v>
       </c>
@@ -7410,21 +7410,21 @@
       <c r="A128" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B128" s="28" t="s">
+      <c r="B128" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="C128" s="21">
+      <c r="C128" s="36">
         <v>127</v>
       </c>
-      <c r="D128" s="28" t="s">
+      <c r="D128" s="35" t="s">
         <v>225</v>
       </c>
       <c r="E128" s="26"/>
-      <c r="F128" s="24"/>
+      <c r="F128" s="26"/>
       <c r="G128" s="24"/>
       <c r="H128" s="25"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="25"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
       <c r="K128" s="31" t="s">
         <v>15</v>
       </c>
@@ -7457,21 +7457,21 @@
       <c r="A129" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B129" s="28" t="s">
+      <c r="B129" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C129" s="21">
+      <c r="C129" s="36">
         <v>128</v>
       </c>
-      <c r="D129" s="28" t="s">
+      <c r="D129" s="35" t="s">
         <v>227</v>
       </c>
       <c r="E129" s="26"/>
-      <c r="F129" s="29"/>
+      <c r="F129" s="26"/>
       <c r="G129" s="24"/>
       <c r="H129" s="25"/>
       <c r="I129" s="29"/>
-      <c r="J129" s="25"/>
+      <c r="J129" s="24"/>
       <c r="K129" s="31" t="s">
         <v>15</v>
       </c>
@@ -7504,21 +7504,21 @@
       <c r="A130" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B130" s="28" t="s">
+      <c r="B130" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="C130" s="21">
+      <c r="C130" s="36">
         <v>129</v>
       </c>
-      <c r="D130" s="28" t="s">
+      <c r="D130" s="35" t="s">
         <v>229</v>
       </c>
       <c r="E130" s="26"/>
-      <c r="F130" s="29"/>
+      <c r="F130" s="26"/>
       <c r="G130" s="24"/>
       <c r="H130" s="25"/>
       <c r="I130" s="29"/>
-      <c r="J130" s="25"/>
+      <c r="J130" s="24"/>
       <c r="K130" s="31" t="s">
         <v>15</v>
       </c>
@@ -7551,21 +7551,21 @@
       <c r="A131" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B131" s="28" t="s">
+      <c r="B131" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="36">
         <v>130</v>
       </c>
-      <c r="D131" s="28" t="s">
+      <c r="D131" s="35" t="s">
         <v>231</v>
       </c>
       <c r="E131" s="26"/>
-      <c r="F131" s="29"/>
+      <c r="F131" s="26"/>
       <c r="G131" s="24"/>
       <c r="H131" s="25"/>
       <c r="I131" s="29"/>
-      <c r="J131" s="25"/>
+      <c r="J131" s="24"/>
       <c r="K131" s="31" t="s">
         <v>15</v>
       </c>
@@ -7598,21 +7598,21 @@
       <c r="A132" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B132" s="28" t="s">
+      <c r="B132" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="C132" s="21">
+      <c r="C132" s="36">
         <v>131</v>
       </c>
-      <c r="D132" s="28" t="s">
+      <c r="D132" s="35" t="s">
         <v>233</v>
       </c>
       <c r="E132" s="26"/>
-      <c r="F132" s="29"/>
+      <c r="F132" s="26"/>
       <c r="G132" s="24"/>
       <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
-      <c r="J132" s="25"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="24"/>
       <c r="K132" s="31" t="s">
         <v>15</v>
       </c>
@@ -7645,21 +7645,21 @@
       <c r="A133" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B133" s="28" t="s">
+      <c r="B133" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="21">
+      <c r="C133" s="36">
         <v>132</v>
       </c>
-      <c r="D133" s="28" t="s">
+      <c r="D133" s="35" t="s">
         <v>243</v>
       </c>
       <c r="E133" s="26"/>
-      <c r="F133" s="29"/>
+      <c r="F133" s="26"/>
       <c r="G133" s="24"/>
       <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="24"/>
       <c r="K133" s="31" t="s">
         <v>15</v>
       </c>
@@ -7692,21 +7692,21 @@
       <c r="A134" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="28" t="s">
+      <c r="B134" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C134" s="21">
+      <c r="C134" s="36">
         <v>133</v>
       </c>
-      <c r="D134" s="28" t="s">
+      <c r="D134" s="35" t="s">
         <v>235</v>
       </c>
       <c r="E134" s="26"/>
-      <c r="F134" s="29"/>
+      <c r="F134" s="26"/>
       <c r="G134" s="24"/>
       <c r="H134" s="25"/>
       <c r="I134" s="29"/>
-      <c r="J134" s="25"/>
+      <c r="J134" s="24"/>
       <c r="K134" s="31" t="s">
         <v>15</v>
       </c>
@@ -7739,21 +7739,21 @@
       <c r="A135" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B135" s="28" t="s">
+      <c r="B135" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="C135" s="21">
+      <c r="C135" s="36">
         <v>134</v>
       </c>
-      <c r="D135" s="28" t="s">
+      <c r="D135" s="35" t="s">
         <v>245</v>
       </c>
       <c r="E135" s="26"/>
-      <c r="F135" s="29"/>
+      <c r="F135" s="26"/>
       <c r="G135" s="24"/>
       <c r="H135" s="25"/>
       <c r="I135" s="29"/>
-      <c r="J135" s="25"/>
+      <c r="J135" s="24"/>
       <c r="K135" s="31" t="s">
         <v>15</v>
       </c>
@@ -7786,21 +7786,21 @@
       <c r="A136" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B136" s="28" t="s">
+      <c r="B136" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="C136" s="21">
+      <c r="C136" s="36">
         <v>135</v>
       </c>
-      <c r="D136" s="28" t="s">
+      <c r="D136" s="35" t="s">
         <v>237</v>
       </c>
       <c r="E136" s="26"/>
-      <c r="F136" s="23"/>
+      <c r="F136" s="26"/>
       <c r="G136" s="24"/>
       <c r="H136" s="25"/>
       <c r="I136" s="23"/>
-      <c r="J136" s="25"/>
+      <c r="J136" s="24"/>
       <c r="K136" s="31" t="s">
         <v>15</v>
       </c>
@@ -7833,21 +7833,21 @@
       <c r="A137" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B137" s="28" t="s">
+      <c r="B137" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="C137" s="21">
+      <c r="C137" s="36">
         <v>136</v>
       </c>
-      <c r="D137" s="28" t="s">
+      <c r="D137" s="35" t="s">
         <v>239</v>
       </c>
       <c r="E137" s="26"/>
-      <c r="F137" s="24"/>
+      <c r="F137" s="26"/>
       <c r="G137" s="24"/>
       <c r="H137" s="25"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="25"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
       <c r="K137" s="31" t="s">
         <v>15</v>
       </c>
@@ -7880,21 +7880,21 @@
       <c r="A138" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="28" t="s">
+      <c r="B138" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="C138" s="21">
+      <c r="C138" s="36">
         <v>137</v>
       </c>
-      <c r="D138" s="28" t="s">
+      <c r="D138" s="35" t="s">
         <v>241</v>
       </c>
       <c r="E138" s="26"/>
-      <c r="F138" s="24"/>
+      <c r="F138" s="26"/>
       <c r="G138" s="24"/>
       <c r="H138" s="25"/>
-      <c r="I138" s="25"/>
-      <c r="J138" s="25"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
       <c r="K138" s="31" t="s">
         <v>15</v>
       </c>
@@ -7927,13 +7927,13 @@
       <c r="A139" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="28" t="s">
+      <c r="B139" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C139" s="21">
+      <c r="C139" s="36">
         <v>138</v>
       </c>
-      <c r="D139" s="28" t="s">
+      <c r="D139" s="35" t="s">
         <v>247</v>
       </c>
       <c r="E139" s="26"/>
@@ -7974,13 +7974,13 @@
       <c r="A140" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B140" s="28" t="s">
+      <c r="B140" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C140" s="21">
+      <c r="C140" s="36">
         <v>139</v>
       </c>
-      <c r="D140" s="28" t="s">
+      <c r="D140" s="35" t="s">
         <v>249</v>
       </c>
       <c r="E140" s="26"/>
@@ -8021,13 +8021,13 @@
       <c r="A141" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="28" t="s">
+      <c r="B141" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C141" s="21">
+      <c r="C141" s="36">
         <v>140</v>
       </c>
-      <c r="D141" s="28" t="s">
+      <c r="D141" s="35" t="s">
         <v>251</v>
       </c>
       <c r="E141" s="26"/>
@@ -8068,13 +8068,13 @@
       <c r="A142" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B142" s="28" t="s">
+      <c r="B142" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C142" s="21">
+      <c r="C142" s="36">
         <v>141</v>
       </c>
-      <c r="D142" s="28" t="s">
+      <c r="D142" s="35" t="s">
         <v>253</v>
       </c>
       <c r="E142" s="26"/>
@@ -8115,13 +8115,13 @@
       <c r="A143" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="28" t="s">
+      <c r="B143" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="C143" s="21">
+      <c r="C143" s="36">
         <v>142</v>
       </c>
-      <c r="D143" s="28" t="s">
+      <c r="D143" s="35" t="s">
         <v>255</v>
       </c>
       <c r="E143" s="26"/>
@@ -8162,13 +8162,13 @@
       <c r="A144" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="28" t="s">
+      <c r="B144" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C144" s="21">
+      <c r="C144" s="36">
         <v>143</v>
       </c>
-      <c r="D144" s="28" t="s">
+      <c r="D144" s="35" t="s">
         <v>257</v>
       </c>
       <c r="E144" s="26"/>

--- a/core/utils/cadenderecoSANTOS.xlsx
+++ b/core/utils/cadenderecoSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7745B44-F393-475B-A967-DF795CE6F17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238565C3-FFB9-45FA-896F-2D1F1712C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="350">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -895,6 +895,186 @@
   </si>
   <si>
     <t>1502</t>
+  </si>
+  <si>
+    <t>Macuco</t>
+  </si>
+  <si>
+    <t>11015-250</t>
+  </si>
+  <si>
+    <t>3324-9319</t>
+  </si>
+  <si>
+    <t>R. Alm. Tamandaré</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Campo Grande</t>
+  </si>
+  <si>
+    <t>11075-661</t>
+  </si>
+  <si>
+    <t>3239-4020</t>
+  </si>
+  <si>
+    <t>R. Evaristo da Veiga</t>
+  </si>
+  <si>
+    <t>Morro São Bento</t>
+  </si>
+  <si>
+    <t>11082-320</t>
+  </si>
+  <si>
+    <t>3232-1624</t>
+  </si>
+  <si>
+    <t>R. 15 de Agosto</t>
+  </si>
+  <si>
+    <t>Castelo</t>
+  </si>
+  <si>
+    <t>11087-460</t>
+  </si>
+  <si>
+    <t>3203-3613</t>
+  </si>
+  <si>
+    <t>Rua Arthur Parsloe</t>
+  </si>
+  <si>
+    <t>Vila Nova</t>
+  </si>
+  <si>
+    <t>11013-310</t>
+  </si>
+  <si>
+    <t>3219-3254</t>
+  </si>
+  <si>
+    <t>Rua Sete de Setembro</t>
+  </si>
+  <si>
+    <t>Saboó</t>
+  </si>
+  <si>
+    <t>11085-050</t>
+  </si>
+  <si>
+    <t>3296-5455</t>
+  </si>
+  <si>
+    <t>Rua Pio XII</t>
+  </si>
+  <si>
+    <t>Morro Penha</t>
+  </si>
+  <si>
+    <t>11081-200</t>
+  </si>
+  <si>
+    <t>3296-1059</t>
+  </si>
+  <si>
+    <t>s/nº</t>
+  </si>
+  <si>
+    <t>Estrada João Baptista</t>
+  </si>
+  <si>
+    <t>Monte Cabrão</t>
+  </si>
+  <si>
+    <t>11220-000</t>
+  </si>
+  <si>
+    <t>3352-4991</t>
+  </si>
+  <si>
+    <t>Rodovia Piaçaguera/Guarujá</t>
+  </si>
+  <si>
+    <t>km 33</t>
+  </si>
+  <si>
+    <t>11070-102</t>
+  </si>
+  <si>
+    <t>3239-3014</t>
+  </si>
+  <si>
+    <t>Rua Carvalho de Mendonça</t>
+  </si>
+  <si>
+    <t>11081-225</t>
+  </si>
+  <si>
+    <t>3296-3001</t>
+  </si>
+  <si>
+    <t>Rua 4 ( antiga Rua P)</t>
+  </si>
+  <si>
+    <t>Vila Haddad</t>
+  </si>
+  <si>
+    <t>11085-350</t>
+  </si>
+  <si>
+    <t>3299-9009</t>
+  </si>
+  <si>
+    <t>Rua Ana Santos</t>
+  </si>
+  <si>
+    <t>Ponta da Praia</t>
+  </si>
+  <si>
+    <t>11035-030</t>
+  </si>
+  <si>
+    <t>3261-1181</t>
+  </si>
+  <si>
+    <t>Av. Professor Aristóteles Menezes</t>
+  </si>
+  <si>
+    <t>Rua 3 esq. C/ Rua 8</t>
+  </si>
+  <si>
+    <t>11080-550</t>
+  </si>
+  <si>
+    <t>3258-6521</t>
+  </si>
+  <si>
+    <t>Vila Progresso</t>
+  </si>
+  <si>
+    <t>11015-110</t>
+  </si>
+  <si>
+    <t>3221-8255</t>
+  </si>
+  <si>
+    <t>Rua 28 de Setembro</t>
+  </si>
+  <si>
+    <t>Bom Retiro</t>
+  </si>
+  <si>
+    <t>11089-030</t>
+  </si>
+  <si>
+    <t>3203-1392</t>
+  </si>
+  <si>
+    <t>Praça Maria Coelho Lopes</t>
   </si>
 </sst>
 </file>
@@ -1632,9 +1812,9 @@
   <dimension ref="A1:AE347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2571,12 +2751,24 @@
       <c r="D20" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" s="24">
+        <v>188</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>291</v>
+      </c>
       <c r="K20" s="31" t="s">
         <v>15</v>
       </c>
@@ -2900,12 +3092,24 @@
       <c r="D27" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="E27" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" s="24">
+        <v>211</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>296</v>
+      </c>
       <c r="K27" s="31" t="s">
         <v>15</v>
       </c>
@@ -3464,12 +3668,24 @@
       <c r="D39" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="24"/>
+      <c r="E39" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" s="24">
+        <v>1166</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>300</v>
+      </c>
       <c r="K39" s="31" t="s">
         <v>15</v>
       </c>
@@ -6190,12 +6406,24 @@
       <c r="D97" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="E97" s="26"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
+      <c r="E97" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="G97" s="24">
+        <v>52</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I97" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>304</v>
+      </c>
       <c r="K97" s="31" t="s">
         <v>15</v>
       </c>
@@ -6237,12 +6465,24 @@
       <c r="D98" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="E98" s="26"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
+      <c r="E98" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="G98" s="24">
+        <v>34</v>
+      </c>
+      <c r="H98" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I98" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>308</v>
+      </c>
       <c r="K98" s="31" t="s">
         <v>15</v>
       </c>
@@ -6378,12 +6618,24 @@
       <c r="D101" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
+      <c r="E101" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G101" s="24">
+        <v>40</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I101" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="J101" s="24" t="s">
+        <v>312</v>
+      </c>
       <c r="K101" s="31" t="s">
         <v>15</v>
       </c>
@@ -6519,12 +6771,24 @@
       <c r="D104" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="E104" s="26"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
+      <c r="E104" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I104" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>316</v>
+      </c>
       <c r="K104" s="31" t="s">
         <v>15</v>
       </c>
@@ -6566,12 +6830,24 @@
       <c r="D105" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E105" s="26"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
+      <c r="E105" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I105" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J105" s="24" t="s">
+        <v>321</v>
+      </c>
       <c r="K105" s="31" t="s">
         <v>15</v>
       </c>
@@ -6707,12 +6983,24 @@
       <c r="D108" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="E108" s="26"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
+      <c r="E108" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="G108" s="24">
+        <v>601</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I108" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>325</v>
+      </c>
       <c r="K108" s="31" t="s">
         <v>15</v>
       </c>
@@ -6801,12 +7089,24 @@
       <c r="D110" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="E110" s="26"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
+      <c r="E110" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="G110" s="24">
+        <v>80</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I110" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J110" s="24" t="s">
+        <v>328</v>
+      </c>
       <c r="K110" s="31" t="s">
         <v>15</v>
       </c>
@@ -6848,12 +7148,24 @@
       <c r="D111" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E111" s="26"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
+      <c r="E111" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="G111" s="24">
+        <v>125</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I111" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="J111" s="24" t="s">
+        <v>332</v>
+      </c>
       <c r="K111" s="31" t="s">
         <v>15</v>
       </c>
@@ -6942,12 +7254,24 @@
       <c r="D113" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E113" s="26"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
+      <c r="E113" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="G113" s="24">
+        <v>41</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I113" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="J113" s="24" t="s">
+        <v>336</v>
+      </c>
       <c r="K113" s="31" t="s">
         <v>15</v>
       </c>
@@ -7083,12 +7407,24 @@
       <c r="D116" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E116" s="26"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
+      <c r="E116" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I116" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="J116" s="24" t="s">
+        <v>340</v>
+      </c>
       <c r="K116" s="31" t="s">
         <v>15</v>
       </c>
@@ -7459,12 +7795,24 @@
       <c r="D124" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="E124" s="26"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
+      <c r="E124" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G124" s="24">
+        <v>201</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I124" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="J124" s="24" t="s">
+        <v>343</v>
+      </c>
       <c r="K124" s="31" t="s">
         <v>15</v>
       </c>
@@ -7506,12 +7854,24 @@
       <c r="D125" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="E125" s="26"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="25"/>
+      <c r="E125" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G125" s="24">
+        <v>0</v>
+      </c>
+      <c r="H125" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="I125" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="J125" s="24" t="s">
+        <v>347</v>
+      </c>
       <c r="K125" s="31" t="s">
         <v>15</v>
       </c>

--- a/core/utils/cadenderecoSANTOS.xlsx
+++ b/core/utils/cadenderecoSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238565C3-FFB9-45FA-896F-2D1F1712C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB1570D-2F7D-44A5-A95F-33C6A6CD2560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="290">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -895,186 +895,6 @@
   </si>
   <si>
     <t>1502</t>
-  </si>
-  <si>
-    <t>Macuco</t>
-  </si>
-  <si>
-    <t>11015-250</t>
-  </si>
-  <si>
-    <t>3324-9319</t>
-  </si>
-  <si>
-    <t>R. Alm. Tamandaré</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Campo Grande</t>
-  </si>
-  <si>
-    <t>11075-661</t>
-  </si>
-  <si>
-    <t>3239-4020</t>
-  </si>
-  <si>
-    <t>R. Evaristo da Veiga</t>
-  </si>
-  <si>
-    <t>Morro São Bento</t>
-  </si>
-  <si>
-    <t>11082-320</t>
-  </si>
-  <si>
-    <t>3232-1624</t>
-  </si>
-  <si>
-    <t>R. 15 de Agosto</t>
-  </si>
-  <si>
-    <t>Castelo</t>
-  </si>
-  <si>
-    <t>11087-460</t>
-  </si>
-  <si>
-    <t>3203-3613</t>
-  </si>
-  <si>
-    <t>Rua Arthur Parsloe</t>
-  </si>
-  <si>
-    <t>Vila Nova</t>
-  </si>
-  <si>
-    <t>11013-310</t>
-  </si>
-  <si>
-    <t>3219-3254</t>
-  </si>
-  <si>
-    <t>Rua Sete de Setembro</t>
-  </si>
-  <si>
-    <t>Saboó</t>
-  </si>
-  <si>
-    <t>11085-050</t>
-  </si>
-  <si>
-    <t>3296-5455</t>
-  </si>
-  <si>
-    <t>Rua Pio XII</t>
-  </si>
-  <si>
-    <t>Morro Penha</t>
-  </si>
-  <si>
-    <t>11081-200</t>
-  </si>
-  <si>
-    <t>3296-1059</t>
-  </si>
-  <si>
-    <t>s/nº</t>
-  </si>
-  <si>
-    <t>Estrada João Baptista</t>
-  </si>
-  <si>
-    <t>Monte Cabrão</t>
-  </si>
-  <si>
-    <t>11220-000</t>
-  </si>
-  <si>
-    <t>3352-4991</t>
-  </si>
-  <si>
-    <t>Rodovia Piaçaguera/Guarujá</t>
-  </si>
-  <si>
-    <t>km 33</t>
-  </si>
-  <si>
-    <t>11070-102</t>
-  </si>
-  <si>
-    <t>3239-3014</t>
-  </si>
-  <si>
-    <t>Rua Carvalho de Mendonça</t>
-  </si>
-  <si>
-    <t>11081-225</t>
-  </si>
-  <si>
-    <t>3296-3001</t>
-  </si>
-  <si>
-    <t>Rua 4 ( antiga Rua P)</t>
-  </si>
-  <si>
-    <t>Vila Haddad</t>
-  </si>
-  <si>
-    <t>11085-350</t>
-  </si>
-  <si>
-    <t>3299-9009</t>
-  </si>
-  <si>
-    <t>Rua Ana Santos</t>
-  </si>
-  <si>
-    <t>Ponta da Praia</t>
-  </si>
-  <si>
-    <t>11035-030</t>
-  </si>
-  <si>
-    <t>3261-1181</t>
-  </si>
-  <si>
-    <t>Av. Professor Aristóteles Menezes</t>
-  </si>
-  <si>
-    <t>Rua 3 esq. C/ Rua 8</t>
-  </si>
-  <si>
-    <t>11080-550</t>
-  </si>
-  <si>
-    <t>3258-6521</t>
-  </si>
-  <si>
-    <t>Vila Progresso</t>
-  </si>
-  <si>
-    <t>11015-110</t>
-  </si>
-  <si>
-    <t>3221-8255</t>
-  </si>
-  <si>
-    <t>Rua 28 de Setembro</t>
-  </si>
-  <si>
-    <t>Bom Retiro</t>
-  </si>
-  <si>
-    <t>11089-030</t>
-  </si>
-  <si>
-    <t>3203-1392</t>
-  </si>
-  <si>
-    <t>Praça Maria Coelho Lopes</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1031,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1245,12 +1065,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,7 +1191,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1435,32 +1249,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,13 +1280,13 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="10" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1814,7 +1622,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1846,7 +1654,7 @@
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="20" t="s">
@@ -1893,31 +1701,31 @@
       <c r="AE1" s="13"/>
     </row>
     <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="14"/>
@@ -1940,31 +1748,31 @@
       <c r="AE2" s="15"/>
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="36">
-        <v>2</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="34">
+        <v>2</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="14"/>
@@ -1987,31 +1795,31 @@
       <c r="AE3" s="15"/>
     </row>
     <row r="4" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="34">
         <v>3</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="33" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N4" s="14"/>
@@ -2034,31 +1842,31 @@
       <c r="AE4" s="15"/>
     </row>
     <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>4</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="33" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N5" s="14"/>
@@ -2081,31 +1889,31 @@
       <c r="AE5" s="15"/>
     </row>
     <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>5</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="33" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="14"/>
@@ -2128,31 +1936,31 @@
       <c r="AE6" s="15"/>
     </row>
     <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="34">
         <v>6</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="33" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="14"/>
@@ -2175,31 +1983,31 @@
       <c r="AE7" s="15"/>
     </row>
     <row r="8" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="34">
         <v>7</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="14"/>
@@ -2222,31 +2030,31 @@
       <c r="AE8" s="15"/>
     </row>
     <row r="9" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="34">
         <v>8</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="33" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N9" s="14"/>
@@ -2269,31 +2077,31 @@
       <c r="AE9" s="15"/>
     </row>
     <row r="10" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <v>9</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="33" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="14"/>
@@ -2316,31 +2124,31 @@
       <c r="AE10" s="15"/>
     </row>
     <row r="11" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="34">
         <v>10</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="33" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N11" s="14"/>
@@ -2363,31 +2171,31 @@
       <c r="AE11" s="15"/>
     </row>
     <row r="12" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="34">
         <v>11</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="33" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N12" s="14"/>
@@ -2410,31 +2218,31 @@
       <c r="AE12" s="15"/>
     </row>
     <row r="13" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="34">
         <v>12</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="33" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N13" s="14"/>
@@ -2457,31 +2265,31 @@
       <c r="AE13" s="15"/>
     </row>
     <row r="14" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="34">
         <v>13</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="33" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N14" s="14"/>
@@ -2504,31 +2312,31 @@
       <c r="AE14" s="15"/>
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="34">
         <v>14</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="33" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N15" s="14"/>
@@ -2551,31 +2359,31 @@
       <c r="AE15" s="15"/>
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="36">
-        <v>15</v>
-      </c>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="34">
+        <v>15</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="33" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N16" s="14"/>
@@ -2598,31 +2406,31 @@
       <c r="AE16" s="15"/>
     </row>
     <row r="17" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>16</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="33" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N17" s="14"/>
@@ -2645,31 +2453,31 @@
       <c r="AE17" s="15"/>
     </row>
     <row r="18" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>17</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="33" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="14"/>
@@ -2692,31 +2500,31 @@
       <c r="AE18" s="15"/>
     </row>
     <row r="19" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="34">
         <v>18</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="33" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N19" s="14"/>
@@ -2739,43 +2547,31 @@
       <c r="AE19" s="15"/>
     </row>
     <row r="20" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="34">
         <v>19</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" s="24">
-        <v>188</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="33" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N20" s="14"/>
@@ -2798,31 +2594,31 @@
       <c r="AE20" s="15"/>
     </row>
     <row r="21" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="34">
         <v>20</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" s="33" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N21" s="14"/>
@@ -2845,31 +2641,31 @@
       <c r="AE21" s="15"/>
     </row>
     <row r="22" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="34">
         <v>21</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="33" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N22" s="5"/>
@@ -2892,31 +2688,31 @@
       <c r="AE22" s="6"/>
     </row>
     <row r="23" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="34">
         <v>22</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="33" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N23" s="5"/>
@@ -2939,31 +2735,31 @@
       <c r="AE23" s="6"/>
     </row>
     <row r="24" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="34">
         <v>23</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="33" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N24" s="5"/>
@@ -2986,31 +2782,31 @@
       <c r="AE24" s="6"/>
     </row>
     <row r="25" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="34">
         <v>24</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="33" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N25" s="5"/>
@@ -3033,31 +2829,31 @@
       <c r="AE25" s="6"/>
     </row>
     <row r="26" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="34">
         <v>25</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="33" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N26" s="5"/>
@@ -3080,43 +2876,31 @@
       <c r="AE26" s="6"/>
     </row>
     <row r="27" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="34">
         <v>26</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="G27" s="24">
-        <v>211</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="33" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N27" s="5"/>
@@ -3139,31 +2923,31 @@
       <c r="AE27" s="6"/>
     </row>
     <row r="28" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="34">
         <v>27</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="33" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N28" s="5"/>
@@ -3186,31 +2970,31 @@
       <c r="AE28" s="6"/>
     </row>
     <row r="29" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="34">
         <v>28</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="33" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N29" s="5"/>
@@ -3233,31 +3017,31 @@
       <c r="AE29" s="6"/>
     </row>
     <row r="30" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="34">
         <v>29</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="33" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N30" s="5"/>
@@ -3280,31 +3064,31 @@
       <c r="AE30" s="6"/>
     </row>
     <row r="31" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="34">
         <v>30</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" s="33" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N31" s="5"/>
@@ -3327,31 +3111,31 @@
       <c r="AE31" s="6"/>
     </row>
     <row r="32" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="34">
         <v>31</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="33" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N32" s="5"/>
@@ -3374,31 +3158,31 @@
       <c r="AE32" s="6"/>
     </row>
     <row r="33" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="34">
         <v>32</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="33" t="s">
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N33" s="5"/>
@@ -3421,31 +3205,31 @@
       <c r="AE33" s="6"/>
     </row>
     <row r="34" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="34">
         <v>33</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="33" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N34" s="5"/>
@@ -3468,31 +3252,31 @@
       <c r="AE34" s="6"/>
     </row>
     <row r="35" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="34">
         <v>34</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="33" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N35" s="5"/>
@@ -3515,31 +3299,31 @@
       <c r="AE35" s="6"/>
     </row>
     <row r="36" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="34">
         <v>35</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="33" t="s">
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N36" s="5"/>
@@ -3562,31 +3346,31 @@
       <c r="AE36" s="6"/>
     </row>
     <row r="37" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="35" t="s">
+      <c r="A37" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="34">
         <v>36</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="33" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N37" s="5"/>
@@ -3609,31 +3393,31 @@
       <c r="AE37" s="6"/>
     </row>
     <row r="38" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="35" t="s">
+      <c r="A38" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="34">
         <v>37</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="33" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N38" s="5"/>
@@ -3656,43 +3440,31 @@
       <c r="AE38" s="6"/>
     </row>
     <row r="39" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="34">
         <v>38</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="G39" s="24">
-        <v>1166</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I39" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="K39" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M39" s="33" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N39" s="5"/>
@@ -3715,31 +3487,31 @@
       <c r="AE39" s="6"/>
     </row>
     <row r="40" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="35" t="s">
+      <c r="A40" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="34">
         <v>39</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M40" s="33" t="s">
+      <c r="E40" s="25"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N40" s="5"/>
@@ -3762,31 +3534,31 @@
       <c r="AE40" s="6"/>
     </row>
     <row r="41" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="35" t="s">
+      <c r="A41" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="34">
         <v>40</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M41" s="33" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N41" s="5"/>
@@ -3809,31 +3581,31 @@
       <c r="AE41" s="6"/>
     </row>
     <row r="42" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="35" t="s">
+      <c r="A42" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="34">
         <v>41</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="33" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N42" s="5"/>
@@ -3856,31 +3628,31 @@
       <c r="AE42" s="6"/>
     </row>
     <row r="43" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="35" t="s">
+      <c r="A43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="34">
         <v>42</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M43" s="33" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N43" s="5"/>
@@ -3903,31 +3675,31 @@
       <c r="AE43" s="6"/>
     </row>
     <row r="44" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="35" t="s">
+      <c r="A44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="34">
         <v>43</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M44" s="33" t="s">
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N44" s="5"/>
@@ -3950,31 +3722,31 @@
       <c r="AE44" s="6"/>
     </row>
     <row r="45" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="35" t="s">
+      <c r="A45" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="34">
         <v>44</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M45" s="33" t="s">
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N45" s="5"/>
@@ -3997,31 +3769,31 @@
       <c r="AE45" s="6"/>
     </row>
     <row r="46" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="35" t="s">
+      <c r="A46" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="34">
         <v>45</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L46" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M46" s="33" t="s">
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N46" s="5"/>
@@ -4044,31 +3816,31 @@
       <c r="AE46" s="6"/>
     </row>
     <row r="47" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="35" t="s">
+      <c r="A47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="34">
         <v>46</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L47" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M47" s="33" t="s">
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N47" s="5"/>
@@ -4091,31 +3863,31 @@
       <c r="AE47" s="6"/>
     </row>
     <row r="48" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="35" t="s">
+      <c r="A48" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="34">
         <v>47</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="33" t="s">
+      <c r="E48" s="25"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N48" s="5"/>
@@ -4138,31 +3910,31 @@
       <c r="AE48" s="6"/>
     </row>
     <row r="49" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="34">
         <v>48</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M49" s="33" t="s">
+      <c r="E49" s="25"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N49" s="5"/>
@@ -4185,31 +3957,31 @@
       <c r="AE49" s="6"/>
     </row>
     <row r="50" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="35" t="s">
+      <c r="A50" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="34">
         <v>49</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M50" s="33" t="s">
+      <c r="E50" s="25"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N50" s="5"/>
@@ -4232,31 +4004,31 @@
       <c r="AE50" s="6"/>
     </row>
     <row r="51" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="35" t="s">
+      <c r="A51" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="34">
         <v>50</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M51" s="33" t="s">
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N51" s="5"/>
@@ -4279,31 +4051,31 @@
       <c r="AE51" s="6"/>
     </row>
     <row r="52" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="35" t="s">
+      <c r="A52" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="34">
         <v>51</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M52" s="33" t="s">
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N52" s="5"/>
@@ -4326,31 +4098,31 @@
       <c r="AE52" s="6"/>
     </row>
     <row r="53" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="35" t="s">
+      <c r="A53" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="34">
         <v>52</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M53" s="33" t="s">
+      <c r="E53" s="25"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N53" s="5"/>
@@ -4373,31 +4145,31 @@
       <c r="AE53" s="6"/>
     </row>
     <row r="54" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="35" t="s">
+      <c r="A54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="34">
         <v>53</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M54" s="33" t="s">
+      <c r="E54" s="25"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N54" s="5"/>
@@ -4420,31 +4192,31 @@
       <c r="AE54" s="6"/>
     </row>
     <row r="55" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="35" t="s">
+      <c r="A55" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="34">
         <v>54</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M55" s="33" t="s">
+      <c r="E55" s="25"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N55" s="5"/>
@@ -4467,31 +4239,31 @@
       <c r="AE55" s="6"/>
     </row>
     <row r="56" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="35" t="s">
+      <c r="A56" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="34">
         <v>55</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M56" s="33" t="s">
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N56" s="5"/>
@@ -4514,31 +4286,31 @@
       <c r="AE56" s="6"/>
     </row>
     <row r="57" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="35" t="s">
+      <c r="A57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="34">
         <v>56</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M57" s="33" t="s">
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N57" s="5"/>
@@ -4561,31 +4333,31 @@
       <c r="AE57" s="6"/>
     </row>
     <row r="58" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="35" t="s">
+      <c r="A58" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="34">
         <v>57</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L58" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M58" s="33" t="s">
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N58" s="5"/>
@@ -4608,31 +4380,31 @@
       <c r="AE58" s="6"/>
     </row>
     <row r="59" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="35" t="s">
+      <c r="A59" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C59" s="34">
         <v>58</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L59" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="33" t="s">
+      <c r="E59" s="23"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N59" s="5"/>
@@ -4655,31 +4427,31 @@
       <c r="AE59" s="6"/>
     </row>
     <row r="60" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="34">
         <v>59</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M60" s="33" t="s">
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N60" s="5"/>
@@ -4702,31 +4474,31 @@
       <c r="AE60" s="6"/>
     </row>
     <row r="61" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="35" t="s">
+      <c r="A61" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="34">
         <v>60</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M61" s="33" t="s">
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N61" s="8"/>
@@ -4749,31 +4521,31 @@
       <c r="AE61" s="6"/>
     </row>
     <row r="62" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="35" t="s">
+      <c r="A62" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="34">
         <v>61</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L62" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M62" s="33" t="s">
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L62" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N62" s="8"/>
@@ -4796,31 +4568,31 @@
       <c r="AE62" s="6"/>
     </row>
     <row r="63" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="35" t="s">
+      <c r="A63" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="34">
         <v>62</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L63" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M63" s="33" t="s">
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L63" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N63" s="8"/>
@@ -4843,31 +4615,31 @@
       <c r="AE63" s="6"/>
     </row>
     <row r="64" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="35" t="s">
+      <c r="A64" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="34">
         <v>63</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M64" s="33" t="s">
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N64" s="8"/>
@@ -4890,31 +4662,31 @@
       <c r="AE64" s="6"/>
     </row>
     <row r="65" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="35" t="s">
+      <c r="A65" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="34">
         <v>64</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M65" s="33" t="s">
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N65" s="8"/>
@@ -4937,31 +4709,31 @@
       <c r="AE65" s="6"/>
     </row>
     <row r="66" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="35" t="s">
+      <c r="A66" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C66" s="34">
         <v>65</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L66" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M66" s="33" t="s">
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L66" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N66" s="8"/>
@@ -4984,31 +4756,31 @@
       <c r="AE66" s="6"/>
     </row>
     <row r="67" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="35" t="s">
+      <c r="A67" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="36">
+      <c r="C67" s="34">
         <v>66</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L67" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M67" s="33" t="s">
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N67" s="8"/>
@@ -5031,31 +4803,31 @@
       <c r="AE67" s="6"/>
     </row>
     <row r="68" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="35" t="s">
+      <c r="A68" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C68" s="34">
         <v>67</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L68" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M68" s="33" t="s">
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N68" s="8"/>
@@ -5078,31 +4850,31 @@
       <c r="AE68" s="6"/>
     </row>
     <row r="69" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="35" t="s">
+      <c r="A69" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="34">
         <v>68</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L69" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M69" s="33" t="s">
+      <c r="E69" s="23"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N69" s="8"/>
@@ -5125,31 +4897,31 @@
       <c r="AE69" s="6"/>
     </row>
     <row r="70" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="35" t="s">
+      <c r="A70" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="36">
+      <c r="C70" s="34">
         <v>69</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="26"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M70" s="33" t="s">
+      <c r="E70" s="25"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N70" s="8"/>
@@ -5172,31 +4944,31 @@
       <c r="AE70" s="6"/>
     </row>
     <row r="71" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="35" t="s">
+      <c r="A71" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="36">
+      <c r="C71" s="34">
         <v>70</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L71" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M71" s="33" t="s">
+      <c r="E71" s="23"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N71" s="8"/>
@@ -5219,31 +4991,31 @@
       <c r="AE71" s="6"/>
     </row>
     <row r="72" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="35" t="s">
+      <c r="A72" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="36">
+      <c r="C72" s="34">
         <v>71</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="26"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M72" s="33" t="s">
+      <c r="E72" s="25"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N72" s="5"/>
@@ -5266,31 +5038,31 @@
       <c r="AE72" s="6"/>
     </row>
     <row r="73" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="35" t="s">
+      <c r="A73" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="36">
+      <c r="C73" s="34">
         <v>72</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M73" s="33" t="s">
+      <c r="E73" s="25"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N73" s="5"/>
@@ -5313,31 +5085,31 @@
       <c r="AE73" s="6"/>
     </row>
     <row r="74" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="35" t="s">
+      <c r="A74" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="36">
+      <c r="C74" s="34">
         <v>73</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L74" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M74" s="33" t="s">
+      <c r="E74" s="25"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M74" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N74" s="5"/>
@@ -5360,31 +5132,31 @@
       <c r="AE74" s="6"/>
     </row>
     <row r="75" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="35" t="s">
+      <c r="A75" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="36">
+      <c r="C75" s="34">
         <v>74</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L75" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M75" s="33" t="s">
+      <c r="E75" s="25"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N75" s="5"/>
@@ -5407,31 +5179,31 @@
       <c r="AE75" s="6"/>
     </row>
     <row r="76" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="35" t="s">
+      <c r="A76" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="36">
+      <c r="C76" s="34">
         <v>75</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="26"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L76" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M76" s="33" t="s">
+      <c r="E76" s="25"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N76" s="5"/>
@@ -5454,31 +5226,31 @@
       <c r="AE76" s="6"/>
     </row>
     <row r="77" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="35" t="s">
+      <c r="A77" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="36">
+      <c r="C77" s="34">
         <v>76</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L77" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M77" s="33" t="s">
+      <c r="E77" s="23"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L77" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M77" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N77" s="5"/>
@@ -5501,31 +5273,31 @@
       <c r="AE77" s="6"/>
     </row>
     <row r="78" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="35" t="s">
+      <c r="A78" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="36">
+      <c r="C78" s="34">
         <v>77</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L78" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M78" s="33" t="s">
+      <c r="E78" s="25"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N78" s="5"/>
@@ -5548,31 +5320,31 @@
       <c r="AE78" s="6"/>
     </row>
     <row r="79" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="35" t="s">
+      <c r="A79" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C79" s="34">
         <v>78</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L79" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M79" s="33" t="s">
+      <c r="E79" s="25"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L79" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N79" s="5"/>
@@ -5595,31 +5367,31 @@
       <c r="AE79" s="6"/>
     </row>
     <row r="80" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="35" t="s">
+      <c r="A80" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="36">
+      <c r="C80" s="34">
         <v>79</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L80" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M80" s="33" t="s">
+      <c r="E80" s="23"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M80" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N80" s="5"/>
@@ -5642,31 +5414,31 @@
       <c r="AE80" s="6"/>
     </row>
     <row r="81" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="35" t="s">
+      <c r="A81" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="36">
+      <c r="C81" s="34">
         <v>80</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L81" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M81" s="33" t="s">
+      <c r="E81" s="25"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L81" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M81" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N81" s="5"/>
@@ -5689,31 +5461,31 @@
       <c r="AE81" s="6"/>
     </row>
     <row r="82" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="35" t="s">
+      <c r="A82" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="36">
+      <c r="C82" s="34">
         <v>81</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M82" s="33" t="s">
+      <c r="E82" s="25"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M82" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N82" s="5"/>
@@ -5736,31 +5508,31 @@
       <c r="AE82" s="6"/>
     </row>
     <row r="83" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="35" t="s">
+      <c r="A83" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="36">
+      <c r="C83" s="34">
         <v>82</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L83" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M83" s="33" t="s">
+      <c r="E83" s="23"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M83" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N83" s="5"/>
@@ -5783,31 +5555,31 @@
       <c r="AE83" s="6"/>
     </row>
     <row r="84" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="35" t="s">
+      <c r="A84" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="36">
+      <c r="C84" s="34">
         <v>83</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E84" s="26"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M84" s="33" t="s">
+      <c r="E84" s="25"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M84" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N84" s="5"/>
@@ -5830,31 +5602,31 @@
       <c r="AE84" s="6"/>
     </row>
     <row r="85" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="35" t="s">
+      <c r="A85" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="36">
+      <c r="C85" s="34">
         <v>84</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L85" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M85" s="33" t="s">
+      <c r="E85" s="25"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L85" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M85" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N85" s="5"/>
@@ -5877,31 +5649,31 @@
       <c r="AE85" s="6"/>
     </row>
     <row r="86" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="35" t="s">
+      <c r="A86" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="C86" s="36">
+      <c r="C86" s="34">
         <v>85</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L86" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M86" s="33" t="s">
+      <c r="E86" s="23"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N86" s="5"/>
@@ -5924,31 +5696,31 @@
       <c r="AE86" s="6"/>
     </row>
     <row r="87" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="35" t="s">
+      <c r="A87" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="36">
+      <c r="C87" s="34">
         <v>86</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E87" s="26"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L87" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M87" s="33" t="s">
+      <c r="E87" s="25"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L87" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N87" s="5"/>
@@ -5971,31 +5743,31 @@
       <c r="AE87" s="6"/>
     </row>
     <row r="88" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="35" t="s">
+      <c r="A88" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C88" s="36">
+      <c r="C88" s="34">
         <v>87</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L88" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M88" s="33" t="s">
+      <c r="E88" s="23"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N88" s="5"/>
@@ -6018,31 +5790,31 @@
       <c r="AE88" s="6"/>
     </row>
     <row r="89" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="35" t="s">
+      <c r="A89" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="36">
+      <c r="C89" s="34">
         <v>88</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M89" s="33" t="s">
+      <c r="E89" s="25"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M89" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N89" s="5"/>
@@ -6065,31 +5837,31 @@
       <c r="AE89" s="6"/>
     </row>
     <row r="90" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="35" t="s">
+      <c r="A90" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C90" s="36">
+      <c r="C90" s="34">
         <v>89</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="E90" s="26"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L90" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M90" s="33" t="s">
+      <c r="E90" s="25"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N90" s="5"/>
@@ -6112,31 +5884,31 @@
       <c r="AE90" s="6"/>
     </row>
     <row r="91" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="35" t="s">
+      <c r="A91" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="36">
+      <c r="C91" s="34">
         <v>90</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E91" s="26"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L91" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M91" s="33" t="s">
+      <c r="E91" s="25"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L91" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N91" s="5"/>
@@ -6159,31 +5931,31 @@
       <c r="AE91" s="6"/>
     </row>
     <row r="92" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="35" t="s">
+      <c r="A92" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="36">
+      <c r="C92" s="34">
         <v>91</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E92" s="26"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L92" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M92" s="33" t="s">
+      <c r="E92" s="25"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L92" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N92" s="5"/>
@@ -6206,31 +5978,31 @@
       <c r="AE92" s="6"/>
     </row>
     <row r="93" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="35" t="s">
+      <c r="A93" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="36">
+      <c r="C93" s="34">
         <v>92</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="26"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L93" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M93" s="33" t="s">
+      <c r="E93" s="25"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L93" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M93" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N93" s="5"/>
@@ -6253,31 +6025,31 @@
       <c r="AE93" s="6"/>
     </row>
     <row r="94" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="35" t="s">
+      <c r="A94" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="36">
+      <c r="C94" s="34">
         <v>93</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E94" s="26"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L94" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M94" s="33" t="s">
+      <c r="E94" s="25"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L94" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N94" s="5"/>
@@ -6300,31 +6072,31 @@
       <c r="AE94" s="6"/>
     </row>
     <row r="95" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="35" t="s">
+      <c r="A95" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="C95" s="36">
+      <c r="C95" s="34">
         <v>94</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="E95" s="26"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L95" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M95" s="33" t="s">
+      <c r="E95" s="25"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N95" s="5"/>
@@ -6347,31 +6119,31 @@
       <c r="AE95" s="6"/>
     </row>
     <row r="96" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="35" t="s">
+      <c r="A96" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C96" s="36">
+      <c r="C96" s="34">
         <v>95</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L96" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M96" s="33" t="s">
+      <c r="E96" s="25"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N96" s="5"/>
@@ -6394,43 +6166,31 @@
       <c r="AE96" s="6"/>
     </row>
     <row r="97" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="28" t="s">
+      <c r="A97" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="34">
         <v>96</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="E97" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="G97" s="24">
-        <v>52</v>
-      </c>
-      <c r="H97" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I97" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="J97" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="K97" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L97" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M97" s="33" t="s">
+      <c r="E97" s="23"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N97" s="5"/>
@@ -6453,43 +6213,31 @@
       <c r="AE97" s="6"/>
     </row>
     <row r="98" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="28" t="s">
+      <c r="A98" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="34">
         <v>97</v>
       </c>
-      <c r="D98" s="28" t="s">
+      <c r="D98" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="E98" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="G98" s="24">
-        <v>34</v>
-      </c>
-      <c r="H98" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I98" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="J98" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="K98" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L98" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M98" s="33" t="s">
+      <c r="E98" s="23"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L98" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N98" s="5"/>
@@ -6512,31 +6260,31 @@
       <c r="AE98" s="6"/>
     </row>
     <row r="99" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="35" t="s">
+      <c r="A99" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C99" s="34">
         <v>98</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="E99" s="26"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L99" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M99" s="33" t="s">
+      <c r="E99" s="25"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L99" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M99" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N99" s="5"/>
@@ -6559,31 +6307,31 @@
       <c r="AE99" s="6"/>
     </row>
     <row r="100" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="35" t="s">
+      <c r="A100" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C100" s="36">
+      <c r="C100" s="34">
         <v>139</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L100" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M100" s="33" t="s">
+      <c r="E100" s="25"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L100" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N100" s="5"/>
@@ -6606,43 +6354,31 @@
       <c r="AE100" s="6"/>
     </row>
     <row r="101" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="28" t="s">
+      <c r="A101" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="34">
         <v>100</v>
       </c>
-      <c r="D101" s="28" t="s">
+      <c r="D101" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="E101" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="G101" s="24">
-        <v>40</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I101" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="J101" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="K101" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L101" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M101" s="33" t="s">
+      <c r="E101" s="23"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L101" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M101" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N101" s="5"/>
@@ -6665,31 +6401,31 @@
       <c r="AE101" s="6"/>
     </row>
     <row r="102" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="35" t="s">
+      <c r="A102" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="C102" s="36">
+      <c r="C102" s="34">
         <v>101</v>
       </c>
-      <c r="D102" s="35" t="s">
+      <c r="D102" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L102" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M102" s="33" t="s">
+      <c r="E102" s="23"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L102" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N102" s="5"/>
@@ -6712,31 +6448,31 @@
       <c r="AE102" s="6"/>
     </row>
     <row r="103" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="35" t="s">
+      <c r="A103" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C103" s="34">
         <v>102</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="E103" s="26"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L103" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M103" s="33" t="s">
+      <c r="E103" s="25"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L103" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M103" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N103" s="5"/>
@@ -6759,43 +6495,31 @@
       <c r="AE103" s="6"/>
     </row>
     <row r="104" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="28" t="s">
+      <c r="A104" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="34">
         <v>103</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="E104" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="F104" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="G104" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="H104" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I104" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="J104" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="K104" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L104" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M104" s="33" t="s">
+      <c r="E104" s="23"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L104" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N104" s="5"/>
@@ -6818,43 +6542,31 @@
       <c r="AE104" s="6"/>
     </row>
     <row r="105" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="28" t="s">
+      <c r="A105" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="34">
         <v>104</v>
       </c>
-      <c r="D105" s="28" t="s">
+      <c r="D105" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="E105" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="F105" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I105" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="J105" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="K105" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L105" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M105" s="33" t="s">
+      <c r="E105" s="23"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L105" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M105" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N105" s="5"/>
@@ -6877,31 +6589,31 @@
       <c r="AE105" s="6"/>
     </row>
     <row r="106" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="35" t="s">
+      <c r="A106" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="C106" s="36">
+      <c r="C106" s="34">
         <v>105</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E106" s="26"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L106" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M106" s="33" t="s">
+      <c r="E106" s="25"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M106" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N106" s="5"/>
@@ -6924,31 +6636,31 @@
       <c r="AE106" s="6"/>
     </row>
     <row r="107" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="35" t="s">
+      <c r="A107" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C107" s="36">
+      <c r="C107" s="34">
         <v>106</v>
       </c>
-      <c r="D107" s="35" t="s">
+      <c r="D107" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E107" s="26"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L107" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M107" s="33" t="s">
+      <c r="E107" s="25"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L107" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M107" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N107" s="5"/>
@@ -6971,43 +6683,31 @@
       <c r="AE107" s="6"/>
     </row>
     <row r="108" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="28" t="s">
+      <c r="A108" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="34">
         <v>107</v>
       </c>
-      <c r="D108" s="28" t="s">
+      <c r="D108" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="E108" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="F108" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="G108" s="24">
-        <v>601</v>
-      </c>
-      <c r="H108" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I108" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="J108" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="K108" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L108" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M108" s="33" t="s">
+      <c r="E108" s="23"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M108" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N108" s="5"/>
@@ -7030,31 +6730,31 @@
       <c r="AE108" s="6"/>
     </row>
     <row r="109" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="35" t="s">
+      <c r="A109" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="C109" s="36">
+      <c r="C109" s="34">
         <v>108</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L109" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M109" s="33" t="s">
+      <c r="E109" s="23"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L109" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M109" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N109" s="5"/>
@@ -7077,43 +6777,31 @@
       <c r="AE109" s="6"/>
     </row>
     <row r="110" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="28" t="s">
+      <c r="A110" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="34">
         <v>109</v>
       </c>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="E110" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="G110" s="24">
-        <v>80</v>
-      </c>
-      <c r="H110" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I110" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="J110" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="K110" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L110" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M110" s="33" t="s">
+      <c r="E110" s="23"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L110" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M110" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N110" s="5"/>
@@ -7136,43 +6824,31 @@
       <c r="AE110" s="6"/>
     </row>
     <row r="111" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="28" t="s">
+      <c r="A111" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C111" s="21">
+      <c r="C111" s="34">
         <v>110</v>
       </c>
-      <c r="D111" s="28" t="s">
+      <c r="D111" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="E111" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="F111" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="G111" s="24">
-        <v>125</v>
-      </c>
-      <c r="H111" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I111" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="J111" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="K111" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L111" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M111" s="33" t="s">
+      <c r="E111" s="23"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M111" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N111" s="5"/>
@@ -7195,31 +6871,31 @@
       <c r="AE111" s="6"/>
     </row>
     <row r="112" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="35" t="s">
+      <c r="A112" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C112" s="36">
+      <c r="C112" s="34">
         <v>111</v>
       </c>
-      <c r="D112" s="35" t="s">
+      <c r="D112" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L112" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M112" s="33" t="s">
+      <c r="E112" s="23"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M112" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N112" s="5"/>
@@ -7242,43 +6918,31 @@
       <c r="AE112" s="6"/>
     </row>
     <row r="113" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="28" t="s">
+      <c r="A113" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="34">
         <v>112</v>
       </c>
-      <c r="D113" s="28" t="s">
+      <c r="D113" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="E113" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="F113" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="G113" s="24">
-        <v>41</v>
-      </c>
-      <c r="H113" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I113" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="J113" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="K113" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L113" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M113" s="33" t="s">
+      <c r="E113" s="23"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L113" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M113" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N113" s="5"/>
@@ -7301,31 +6965,31 @@
       <c r="AE113" s="6"/>
     </row>
     <row r="114" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="35" t="s">
+      <c r="A114" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C114" s="36">
+      <c r="C114" s="34">
         <v>113</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L114" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M114" s="33" t="s">
+      <c r="E114" s="23"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L114" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M114" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N114" s="5"/>
@@ -7348,31 +7012,31 @@
       <c r="AE114" s="6"/>
     </row>
     <row r="115" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="35" t="s">
+      <c r="A115" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C115" s="36">
+      <c r="C115" s="34">
         <v>114</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L115" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M115" s="33" t="s">
+      <c r="E115" s="23"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L115" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M115" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N115" s="5"/>
@@ -7395,43 +7059,31 @@
       <c r="AE115" s="6"/>
     </row>
     <row r="116" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="28" t="s">
+      <c r="A116" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="34">
         <v>115</v>
       </c>
-      <c r="D116" s="28" t="s">
+      <c r="D116" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="E116" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="F116" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="G116" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="H116" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I116" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="J116" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="K116" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L116" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M116" s="33" t="s">
+      <c r="E116" s="23"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L116" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M116" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N116" s="5"/>
@@ -7454,31 +7106,31 @@
       <c r="AE116" s="6"/>
     </row>
     <row r="117" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="35" t="s">
+      <c r="A117" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C117" s="36">
+      <c r="C117" s="34">
         <v>116</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E117" s="26"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L117" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M117" s="33" t="s">
+      <c r="E117" s="25"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="23"/>
+      <c r="J117" s="23"/>
+      <c r="K117" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L117" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M117" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N117" s="5"/>
@@ -7501,31 +7153,31 @@
       <c r="AE117" s="6"/>
     </row>
     <row r="118" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="35" t="s">
+      <c r="A118" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C118" s="36">
+      <c r="C118" s="34">
         <v>117</v>
       </c>
-      <c r="D118" s="35" t="s">
+      <c r="D118" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="24"/>
-      <c r="K118" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L118" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M118" s="33" t="s">
+      <c r="E118" s="23"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L118" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M118" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N118" s="5"/>
@@ -7548,31 +7200,31 @@
       <c r="AE118" s="6"/>
     </row>
     <row r="119" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="35" t="s">
+      <c r="A119" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C119" s="36">
+      <c r="C119" s="34">
         <v>118</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E119" s="26"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L119" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M119" s="33" t="s">
+      <c r="E119" s="25"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L119" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M119" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N119" s="5"/>
@@ -7595,31 +7247,31 @@
       <c r="AE119" s="6"/>
     </row>
     <row r="120" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="35" t="s">
+      <c r="A120" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="36">
+      <c r="C120" s="34">
         <v>119</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L120" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M120" s="33" t="s">
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L120" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M120" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N120" s="5"/>
@@ -7642,31 +7294,31 @@
       <c r="AE120" s="6"/>
     </row>
     <row r="121" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="35" t="s">
+      <c r="A121" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C121" s="36">
+      <c r="C121" s="34">
         <v>120</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D121" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E121" s="26"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L121" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M121" s="33" t="s">
+      <c r="E121" s="25"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L121" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M121" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N121" s="5"/>
@@ -7689,31 +7341,31 @@
       <c r="AE121" s="6"/>
     </row>
     <row r="122" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="35" t="s">
+      <c r="A122" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C122" s="36">
+      <c r="C122" s="34">
         <v>121</v>
       </c>
-      <c r="D122" s="35" t="s">
+      <c r="D122" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="E122" s="26"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L122" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M122" s="33" t="s">
+      <c r="E122" s="25"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L122" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M122" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N122" s="5"/>
@@ -7736,31 +7388,31 @@
       <c r="AE122" s="6"/>
     </row>
     <row r="123" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="35" t="s">
+      <c r="A123" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C123" s="36">
+      <c r="C123" s="34">
         <v>122</v>
       </c>
-      <c r="D123" s="35" t="s">
+      <c r="D123" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="E123" s="26"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="24"/>
-      <c r="K123" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L123" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M123" s="33" t="s">
+      <c r="E123" s="25"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L123" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M123" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N123" s="5"/>
@@ -7783,43 +7435,31 @@
       <c r="AE123" s="6"/>
     </row>
     <row r="124" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="28" t="s">
+      <c r="A124" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C124" s="34">
         <v>123</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="E124" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="F124" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="G124" s="24">
-        <v>201</v>
-      </c>
-      <c r="H124" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="I124" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="J124" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="K124" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L124" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M124" s="33" t="s">
+      <c r="E124" s="23"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
+      <c r="K124" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L124" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M124" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N124" s="5"/>
@@ -7842,43 +7482,31 @@
       <c r="AE124" s="6"/>
     </row>
     <row r="125" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" s="28" t="s">
+      <c r="A125" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="34">
         <v>124</v>
       </c>
-      <c r="D125" s="28" t="s">
+      <c r="D125" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="E125" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="F125" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="G125" s="24">
-        <v>0</v>
-      </c>
-      <c r="H125" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="J125" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="K125" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L125" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M125" s="33" t="s">
+      <c r="E125" s="24"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L125" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M125" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N125" s="5"/>
@@ -7901,31 +7529,31 @@
       <c r="AE125" s="6"/>
     </row>
     <row r="126" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="35" t="s">
+      <c r="A126" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="36">
+      <c r="C126" s="34">
         <v>125</v>
       </c>
-      <c r="D126" s="35" t="s">
+      <c r="D126" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="26"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L126" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M126" s="33" t="s">
+      <c r="E126" s="25"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L126" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M126" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N126" s="5"/>
@@ -7948,31 +7576,31 @@
       <c r="AE126" s="6"/>
     </row>
     <row r="127" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="35" t="s">
+      <c r="A127" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="36">
+      <c r="C127" s="34">
         <v>126</v>
       </c>
-      <c r="D127" s="35" t="s">
+      <c r="D127" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="24"/>
-      <c r="K127" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L127" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M127" s="33" t="s">
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L127" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M127" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N127" s="5"/>
@@ -7995,31 +7623,31 @@
       <c r="AE127" s="6"/>
     </row>
     <row r="128" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="35" t="s">
+      <c r="A128" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C128" s="36">
+      <c r="C128" s="34">
         <v>127</v>
       </c>
-      <c r="D128" s="35" t="s">
+      <c r="D128" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="24"/>
-      <c r="K128" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L128" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M128" s="33" t="s">
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L128" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M128" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N128" s="5"/>
@@ -8042,31 +7670,31 @@
       <c r="AE128" s="6"/>
     </row>
     <row r="129" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="35" t="s">
+      <c r="A129" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C129" s="36">
+      <c r="C129" s="34">
         <v>128</v>
       </c>
-      <c r="D129" s="35" t="s">
+      <c r="D129" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L129" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M129" s="33" t="s">
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L129" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M129" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N129" s="5"/>
@@ -8089,31 +7717,31 @@
       <c r="AE129" s="6"/>
     </row>
     <row r="130" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="35" t="s">
+      <c r="A130" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="C130" s="36">
+      <c r="C130" s="34">
         <v>129</v>
       </c>
-      <c r="D130" s="35" t="s">
+      <c r="D130" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L130" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M130" s="33" t="s">
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L130" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M130" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N130" s="5"/>
@@ -8136,31 +7764,31 @@
       <c r="AE130" s="6"/>
     </row>
     <row r="131" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="35" t="s">
+      <c r="A131" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C131" s="36">
+      <c r="C131" s="34">
         <v>130</v>
       </c>
-      <c r="D131" s="35" t="s">
+      <c r="D131" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="29"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L131" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M131" s="33" t="s">
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L131" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M131" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N131" s="5"/>
@@ -8183,31 +7811,31 @@
       <c r="AE131" s="6"/>
     </row>
     <row r="132" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="35" t="s">
+      <c r="A132" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C132" s="36">
+      <c r="C132" s="34">
         <v>131</v>
       </c>
-      <c r="D132" s="35" t="s">
+      <c r="D132" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L132" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M132" s="33" t="s">
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L132" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M132" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N132" s="5"/>
@@ -8230,31 +7858,31 @@
       <c r="AE132" s="6"/>
     </row>
     <row r="133" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="35" t="s">
+      <c r="A133" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="36">
+      <c r="C133" s="34">
         <v>132</v>
       </c>
-      <c r="D133" s="35" t="s">
+      <c r="D133" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L133" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M133" s="33" t="s">
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L133" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M133" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N133" s="5"/>
@@ -8277,31 +7905,31 @@
       <c r="AE133" s="6"/>
     </row>
     <row r="134" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="35" t="s">
+      <c r="A134" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="C134" s="36">
+      <c r="C134" s="34">
         <v>133</v>
       </c>
-      <c r="D134" s="35" t="s">
+      <c r="D134" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L134" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M134" s="33" t="s">
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="23"/>
+      <c r="K134" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L134" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M134" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N134" s="5"/>
@@ -8324,31 +7952,31 @@
       <c r="AE134" s="6"/>
     </row>
     <row r="135" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="35" t="s">
+      <c r="A135" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C135" s="36">
+      <c r="C135" s="34">
         <v>134</v>
       </c>
-      <c r="D135" s="35" t="s">
+      <c r="D135" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="24"/>
-      <c r="K135" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L135" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M135" s="33" t="s">
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L135" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M135" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N135" s="5"/>
@@ -8371,31 +7999,31 @@
       <c r="AE135" s="6"/>
     </row>
     <row r="136" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="35" t="s">
+      <c r="A136" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C136" s="36">
+      <c r="C136" s="34">
         <v>135</v>
       </c>
-      <c r="D136" s="35" t="s">
+      <c r="D136" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="24"/>
-      <c r="K136" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L136" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M136" s="33" t="s">
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="22"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L136" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M136" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N136" s="5"/>
@@ -8418,31 +8046,31 @@
       <c r="AE136" s="6"/>
     </row>
     <row r="137" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="35" t="s">
+      <c r="A137" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="C137" s="36">
+      <c r="C137" s="34">
         <v>136</v>
       </c>
-      <c r="D137" s="35" t="s">
+      <c r="D137" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
-      <c r="K137" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L137" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M137" s="33" t="s">
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="24"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L137" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M137" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N137" s="5"/>
@@ -8465,31 +8093,31 @@
       <c r="AE137" s="6"/>
     </row>
     <row r="138" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="35" t="s">
+      <c r="A138" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="C138" s="36">
+      <c r="C138" s="34">
         <v>137</v>
       </c>
-      <c r="D138" s="35" t="s">
+      <c r="D138" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="25"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L138" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M138" s="33" t="s">
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
+      <c r="K138" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L138" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M138" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N138" s="7"/>
